--- a/UploadedFiles/Updated Scorecard Tables.xlsx
+++ b/UploadedFiles/Updated Scorecard Tables.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5952" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5952" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Perspectives" sheetId="1" r:id="rId1"/>
     <sheet name="Initiatives" sheetId="2" r:id="rId2"/>
     <sheet name="Actions" sheetId="3" r:id="rId3"/>
     <sheet name="Tasks" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="401">
   <si>
     <t>PID</t>
   </si>
@@ -62,9 +63,6 @@
     <t>Telling the MKC story to merger candidates' board members and employees</t>
   </si>
   <si>
-    <t xml:space="preserve">Board Initiatve - Explore criteria for voting membership </t>
-  </si>
-  <si>
     <t>Maximize sales performance</t>
   </si>
   <si>
@@ -938,27 +936,9 @@
     <t>Post to Board Portal for review</t>
   </si>
   <si>
-    <t>…………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………….</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Mandie is testing a note.</t>
-  </si>
-  <si>
-    <t>JB finished!!!</t>
-  </si>
-  <si>
-    <t>ongoing task</t>
-  </si>
-  <si>
-    <t>updates needed</t>
-  </si>
-  <si>
     <t>Redesigned website</t>
   </si>
   <si>
@@ -987,13 +967,804 @@
   </si>
   <si>
     <t>Hire a business Intelligence specialist</t>
+  </si>
+  <si>
+    <t>Spreadsheet is created and maintained by Darin.</t>
+  </si>
+  <si>
+    <t>Dave C. keeps target list.</t>
+  </si>
+  <si>
+    <t>Alerts are set to Amy for every 6 months to update targets with Dave C. and Ted.</t>
+  </si>
+  <si>
+    <t>Alerts to Amy are set for every other Monday to obtain updates from Darin.</t>
+  </si>
+  <si>
+    <t>Jon Brown completed the 2015 updates in December with the assistance of Chris Roberts.</t>
+  </si>
+  <si>
+    <t>Alerts to Amy are set for every other Month to have VPs revisit after staff to keep current.</t>
+  </si>
+  <si>
+    <t>Suggested retailers have been added to the spreadsheet although no progress is logged.</t>
+  </si>
+  <si>
+    <t>Dashboard is still being built out.  Review meeting is scheduled for wk of Jan 18.</t>
+  </si>
+  <si>
+    <t>Margin/Expense Management Committee is created.</t>
+  </si>
+  <si>
+    <t>Alerts to Amy for every quarter to visit with Dave C. about voting membership.</t>
+  </si>
+  <si>
+    <t>Will wait for instruction after strategic planning on Jan. 26-28.</t>
+  </si>
+  <si>
+    <t>Cannot be located.  Create new list.</t>
+  </si>
+  <si>
+    <t>Talking points are highlighted in the "Inititiative in Review" for Telling the MKC Story.</t>
+  </si>
+  <si>
+    <t>Complete.  Development sessions are on the books for February and March of 2016.</t>
+  </si>
+  <si>
+    <t>Complete.  CHS has opportunities and Chris Fischer is booked for March.</t>
+  </si>
+  <si>
+    <t>Dave confirms complete.</t>
+  </si>
+  <si>
+    <t>Training will include access to the dashboard and how to interpret the data.</t>
+  </si>
+  <si>
+    <t>Still planning on formal roll out in February.  Should consider monthly variance reporting.</t>
+  </si>
+  <si>
+    <t>List is made &amp; prioritizing is in progress.  Buypoint is still in feasibility phase.</t>
+  </si>
+  <si>
+    <t>Hired 2.  Next steps include MAA action items &amp; timelining them.  Consider 3-3MIL accounts as discussed in VIP.</t>
+  </si>
+  <si>
+    <t>Postcards were sent.</t>
+  </si>
+  <si>
+    <t>List was completed.</t>
+  </si>
+  <si>
+    <t>Tim met with each Field Marketer.</t>
+  </si>
+  <si>
+    <t>123 loans captured exceeding the 75 goal.  This is a 46% increase over LY.</t>
+  </si>
+  <si>
+    <t>Signed.</t>
+  </si>
+  <si>
+    <t>List compiled by obtaining 3-6 accounts from each Field Marketer.  60 identified.</t>
+  </si>
+  <si>
+    <t>Complete.</t>
+  </si>
+  <si>
+    <t>Timeline received and launch milestone fullfilled.</t>
+  </si>
+  <si>
+    <t>60% share of wallet, 20% service surveys, 20% meeting attendance.</t>
+  </si>
+  <si>
+    <t>Meeting held and modules defined.</t>
+  </si>
+  <si>
+    <t>Script is complete.</t>
+  </si>
+  <si>
+    <t>Will need to revisit once new site is launched.</t>
+  </si>
+  <si>
+    <t>Decisions have been made.</t>
+  </si>
+  <si>
+    <t>Seed is done.  Fertilizer is not.</t>
+  </si>
+  <si>
+    <t>Chemical is done.  Check on Energy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will be administered as a topic in the FLM+ curriculum.  Verify in syllabus.  </t>
+  </si>
+  <si>
+    <t>Bruce Tulgan scheduled in February.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 days defined for agronomy.  Other departments will determine their own.  </t>
+  </si>
+  <si>
+    <t>Testing is being completed now by Devin and Kent.</t>
+  </si>
+  <si>
+    <t>Complete.  Reviewed by Dave C. in November 2015 Monthly Manager Meeting. Consider Customer Testimonal Videos next.</t>
+  </si>
+  <si>
+    <t>CRM Power Survey Plus functionality not tested yet. If not CRM then Field Marketers will collect data manually.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questions are being revised from open ended to quantifiable.  </t>
+  </si>
+  <si>
+    <t>Goal is to have top 10 done by April 1, 2016.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigation is complete.  Will use CRM Power Survey Plus but still need to test funtionality on employee group first.  </t>
+  </si>
+  <si>
+    <t>Meeting held and survey types defined.  Schedule another meeting to reconfirm types and questions for each to pass forward to Dustin.</t>
+  </si>
+  <si>
+    <t>Interns completing transfers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All transfers are complete.  SOP template is now used for all new processes.  Committee will internally audit any processes w/o an SOP. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back to discovery phase.  </t>
+  </si>
+  <si>
+    <t>Willie is calling on each Sumner Co. invitee personally.  Will set up meeting afterward.</t>
+  </si>
+  <si>
+    <t>Conference call scheduled for 1/19.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farmers Bureau Network software may not be best course of action.  </t>
+  </si>
+  <si>
+    <t>Power Survey not ready to launch.  Used written survey and instant click survey methods.</t>
+  </si>
+  <si>
+    <t>Maybe next year.</t>
+  </si>
+  <si>
+    <t>Completed in Phase 1.</t>
+  </si>
+  <si>
+    <t>Ross confirms in progress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a new sales incentive to to drive precision ag services.  Find out what marketing channels are being used and what collateral is needed.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete.  Tuesday March 15, 2016. </t>
+  </si>
+  <si>
+    <t>Complete.  December 21-22, 2015.</t>
+  </si>
+  <si>
+    <t>Complete.  2016 Calendar complete.  Template complete.</t>
+  </si>
+  <si>
+    <t>Complete and offically rolled out in October 2015.</t>
+  </si>
+  <si>
+    <t>Complete and part of Amy's monthly tasks.</t>
+  </si>
+  <si>
+    <t>Complete and part of Amy's monthly tasks.  This includes Sales/Ops meetings as well.</t>
+  </si>
+  <si>
+    <t>Complete.  Champions and Executive Team review and approve each initiative before monthly manager meeting.</t>
+  </si>
+  <si>
+    <t>Complete and part of Safety Committee's responsibilies.</t>
+  </si>
+  <si>
+    <t>Complete and rolled out in Sept 2015.</t>
+  </si>
+  <si>
+    <t>Template currently in review.</t>
+  </si>
+  <si>
+    <t>Created by MKC Way Committee each month.</t>
+  </si>
+  <si>
+    <t>Complete and administered by MKC Way Committee Members.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A potential merger partner list with contacts and notes is reviewed and updated every 2 weeks by Darin. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Attach example?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Prospective partnerships with independent retailers are also logged and updated here.  The large project list has been updated and prioritized for 2016/17 and is now scheduled to be reviewed quarterly to capture changes and additions in real time.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Attach example?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> An alert has been established to revisit the identification of potential green field sites every 6 months with Dave C. and Ted.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales training to include multigenerational selling techniques will be included in the FLM+ training series.  As soon as this piece is incorporated into the curriculum, we will determine how to measure its effectiveness.  Generational speaker Bruce Talgan is scheduled for employee groups in January.  A special list of invitees was compiled to target Sumner County young producers to attend EPP.  Individual follow up calls to these participants is underway.  Written survey and instant click survey results have been complied and reviewed by champion group. We are still in the discovery phase for building appropriate benchmarks for farmers under 40.  FBN software is still being considered.  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">New website content is live and very well represented.  We are still in the approval process with the FAA for our UAV but are currently compiling a list of prospective services to add to our precision ag portfolio upon this approval.  Customer education meetings are being planned now for 2016.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*Consider new actions to include defining new marketing strategies to drive precision ag services and how this will affect the new sales incentive.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Applicator training checklist is developed and currently being revised to accommodate soft skills and 30-60-90 day checkpoints.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">*Consider adding action to create the SOP and roll out company wide.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HPE metrics have been defined and a panel review will be scheduled to discuss HPEs on the list.  The first pass on an IDP template was released for review in January.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">*Consider new actions to drive training to LMs on how to administer IDPs and mentor HPEs.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flyers are being designed to recruit teachers to include instructions on how and where to distribute these flyers.  Recruiting efforts for Cloud County program are complete and FLM+ Sales training is underway.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*Consider adding new actions to drive the examination of the wellness requirements for the new benefits package.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A Manager of Applications Development was hired in June 2016.  The decision to move forward with Logi has led IT toward more rapid completion of critical dashboards including this one. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Attach project list?) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Options have been identified for more review. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A financial dashboard is currently being created to house location specific sales and expense items by month for key employees to be able to review monthly.  IT is troubleshooting the source and flow of data to ensure accuracy and timeliness.  Still on pace for a February roll out.  Training piece will follow on how to navigate and evaluate the content. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*Consider adding an action for monthly variance reporting to encourage usage, understanding, accountability and to measure baseline performance standards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.  The Margin/Expense Management Committee is established and currently prioritizing cost saving projects, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Attach example?), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and finding ways to measure success of each one including BuyPoint which is still in the feasibility phase.   </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Board Initiative - Explore criteria for voting membership </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other methods have been identified to compare and contrast.  No changes are currently being made but next steps have been identified for preparedness including feasibility reporting to the BOD, reviewing bylaws, and meeting with governance committee for in-depth evaluation.  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">New talking points were created when designing the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Initiative In Review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for Telling the MKC Story.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Attach example?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Dave C. reviewed these talking points in the November 2015 Monthly Manager Meeting. These talking points were included in December's Team Meeting Agenda to review with entire employee group. A Board Committee has been identified to champion merger candidate meetings &amp; presentations. BOD development sessions are scheduled in Jan &amp; Mar of 2016 to keep momentum in continuing education.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*Consider adding new action to include customer testimonial videos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Share of wallet continues to drive sales efforts.  Measurements have been established as:  60% + share of wallet per business unit = existing customer, 21%-59% = targeted customer and &gt; 20% = prospective customer.  A better &amp; more accurate forecasting tool is up for discussion in Q1 in order to tie to incentive plans appropriately.  2 MAA's have been hired.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*Consider adding new actions here regarding MAA smart goals and define 3MIL account strategy.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The execution of the CFA marketing plan was proven successful by exceeding the original goal by 48 loans.  This is a 46% increase over LY.  We are currently testing CRM's capability in generating a priority account report every Monday that pulls accounts that have exceeded their departmentally determined, acceptable length of time without contact.  Should go live in FEB. The strategy to capture 15 new 1MIL accounts is underway and on pace with 60 identified targets </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Attach list?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.  Checkpoints are scheduled in Q2 to narrow the focus and discuss capture strategy.  War boards, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Attach example?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, have been implemented to track and identify Field Marketer goals and pace to goals for inputs and application each month. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Relationship with LOL was leveraged to create and successfully launch the new MKC website on January 14th 2016. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Attach link?) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Phase one is complete with continued troubleshooting behind the scenes to include enhancements such as depth of organization with employee bios highlighting the youth and expertise of our leadership group.  Phase two will include customer log in components, membership materials and career page enhancements.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*Consider adding new action items after receiving phase 2 milestones from LOL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.  Please note, the YouTube videos to assist in navigating the customer portal will be recorded after phase two to capture most current functionality.  In reference to implementing customer face to face reviews, it has been determined to utilize CRM's Power Survey module to house the survey questions.  Power Survey will be tested on the employee group first before rolling out to customers.  An April deadline has been defined to have administered a survey to at least the top 10 accounts.  Survey questions </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Attach questions?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will be customized for Agronomy services, Grain services, and Energy Services.  All of which will be launched strategically by season.  Agronomy after fall harvest and Grain after wheat harvest.  Energy TBD.  Power Survey will also be used to measure specific customer experiences after services or loan fulfillments.  It has been determined that customer engagement can be measured by 3 things:  60% share of wallet, 20% service surveys, and 20% of meeting or event attendance currently being tracked by Power Zap Event via CRM.   Regarding SOP development, all recorded processes have been transferred to the new template via summer interns </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Attach SOP template?).  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">*Consider new action item to audit department files to identify any critical procedures without a formal SOP.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Lastly, regarding customer prepay contracts; seed and chemical contracts are done.  Fertilizer will not change and Energy is underway but stalled for now.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*Consider new action to include formal training and/or checkpoints to determine if new contracts are working as planned.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We are currently showcasing one initiative in review </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Attach example?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> each month in the monthly manager's meeting consisting of a brief presentation from the champion on how to carry the message over into location team meetings as outlined in the new company wide agenda.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Attach example?) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">We are leveraging the outreach of the employee newsletter as well and including an initiative article in each edition, relative to what was reviewed that month in their team meetings. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Attach example?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.  Each review is housed in the M-drive for access and reference when discussing performance plans to determine which initiative or action may resonate with that employee for future mentoring.  VIP Meetings have been introduced will occur annually.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">*Consider adding an action to dive deeper into the employee group with the assistance of VIPs to administer location level strategic planning.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Safety messages are distributed every Monday by a Safety Committee member.  Prescription eye protection, Driver training, and Hot work permits have all been successfully implemented.  A more consistent platform for daily safety meetings is currently in review.  Location safety audits are underway for 2016 with a goal to have all of them complete by Q2.  Accidents are being investigated as they happen and information is being shared at the start of every meeting. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*Consider adding an action relative to the proposal for a safety data warehouse.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Courtesy tactics currently in place include the monthly customer service topic as well as the incorporation of the 4 keys in the company wide agenda for each location's monthly team meeting.  The image audit template has been redesigned and the SOP is in place.  Audits are currently underway by the MKC Way Committee.  Innovative solutions are being recognized in monthly manager meetings.  The MKC Way Committee has created a checklist to monitor submissions and ensure follow through.  Standards for incentives are being written now. </t>
+    </r>
+  </si>
+  <si>
+    <t>The OT &amp; Wage Study are complete with no indication that our ratios and averages are anywhere outside the competitive set.  Financial performance standards have been determined for each location and will roll into the new incentive program as scheduled.  The Employee Engagement Survey (EES) is scheduled for 2016 and with those results a YOY comparison will determine targets for the 2017 strategic plan with emphasis on employee development and communications.  Advertisements for drivers have been posted at local retirement communities to increase peak time workforce needs as well as tapping into other cooperatives' workforces that are on opposite seasons.  The Expense/Margin Management Committee conducted a cost analysis on temp/PT vs. FT employees and found favorable results toward FT employment.  H-2A Visas have been investigated as well and found to be an undesirable source for seasonal help.  Sub surveys will launch after the EES to analyze employee's ideas on quality of life.  Geographically selected employee focus groups will also be assembled to gain understanding and create action items toward improvement in Q2.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Proformas and feasibility reports for outright fleet ownership are complete.  Meetings are scheduled to occur in Q1 2016 to conduct comparative analysis and determine the best course of action. Razor tracking is fully implemented.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*Consider adding new actions that investigate complete functionality.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The scorecard template is complete </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Attach example?).  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Grain quality grades have been determined.  Waiting on financial dashboards for locations to examine results and apply to new incentive program.  </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1007,8 +1778,36 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1021,8 +1820,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1054,11 +1859,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1069,11 +1889,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="14">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1195,6 +2028,123 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1218,20 +2168,21 @@
   <tableColumns count="3">
     <tableColumn id="1" name="PID"/>
     <tableColumn id="2" name="Description"/>
-    <tableColumn id="3" name="Progress" dataDxfId="8"/>
+    <tableColumn id="3" name="Progress" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D18" totalsRowShown="0">
-  <autoFilter ref="A1:D18"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="PID "/>
-    <tableColumn id="2" name="INID"/>
-    <tableColumn id="3" name="Description"/>
-    <tableColumn id="6" name="Progress" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E18" totalsRowShown="0" dataDxfId="12">
+  <autoFilter ref="A1:E18"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="PID " dataDxfId="11"/>
+    <tableColumn id="2" name="INID" dataDxfId="10"/>
+    <tableColumn id="3" name="Description" dataDxfId="9"/>
+    <tableColumn id="6" name="Progress" dataDxfId="8"/>
+    <tableColumn id="5" name="Notes" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1559,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1571,7 +2522,7 @@
       </c>
       <c r="C2" s="6">
         <f>SUM(Initiatives!D2:D5) / 4</f>
-        <v>57.708333333333329</v>
+        <v>55.208333333333329</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1583,7 +2534,7 @@
       </c>
       <c r="C3" s="6">
         <f>SUM(Initiatives!D6:D9) / 4</f>
-        <v>38.385416666666664</v>
+        <v>41.854166666666664</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1641,18 +2592,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.6640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1663,277 +2615,338 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="13">
         <f>SUM(Actions!H2:H5) / 4</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E2" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="13">
         <f>SUM(Actions!H6:H7) / 2</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="E3" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="D4" s="13">
         <f>SUM(Actions!H8:H9) / 2</f>
         <v>17.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E4" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="13">
         <f>SUM(Actions!H10:H12) / 3</f>
-        <v>88.333333333333329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+        <v>78.333333333333329</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="13">
+        <f>SUM(Actions!H13:H17) / 5</f>
+        <v>57</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6">
-        <f>SUM(Actions!H13:H17) / 5</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" s="13">
+        <f>SUM(Actions!H18:H25) / 8</f>
+        <v>45</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12">
+        <v>3</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6">
-        <f>SUM(Actions!H18:H25) / 8</f>
-        <v>56.875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" s="13">
+        <f>SUM(Actions!H26:H29) / 4</f>
+        <v>53.75</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
+      <c r="B9" s="12">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="6">
-        <f>SUM(Actions!H26:H29) / 4</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="D9" s="13">
         <f>SUM(Actions!H30:H32) / 3</f>
         <v>11.666666666666666</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="E9" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>3</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="13">
         <f>SUM(Actions!H33:H35) / 3</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="E10" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>3</v>
+      </c>
+      <c r="B11" s="12">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="13">
         <f>SUM(Actions!H36:H39) / 4</f>
         <v>71.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="E11" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="13">
         <f>SUM(Actions!H40:H44) / 5</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="E12" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12">
+        <v>4</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="13">
         <f>SUM(Actions!H45:H49) / 5</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
+      <c r="E13" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>3</v>
+      </c>
+      <c r="B14" s="12">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="13">
         <f>SUM(Actions!H50)</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="E14" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="13">
         <f>SUM(Actions!H51:H52) / 2</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="E15" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>4</v>
+      </c>
+      <c r="B16" s="12">
+        <v>2</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="13">
         <f>SUM(Actions!H53:H54) / 2</f>
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="E16" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>4</v>
+      </c>
+      <c r="B17" s="12">
+        <v>3</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="13">
         <f>SUM(Actions!H55)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="E17" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>4</v>
+      </c>
+      <c r="B18" s="12">
+        <v>4</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="13">
         <f>SUM(Actions!H56:H57)/2</f>
         <v>17.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D38" t="s">
-        <v>304</v>
-      </c>
+      <c r="E18" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="F18" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D18">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="D2:F18">
+    <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1942,8 +2955,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1973,22 +2987,22 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
         <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -2002,16 +3016,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H2" s="6">
         <f>SUM(Tasks!I2:I3) * 10</f>
@@ -2029,16 +3043,16 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3" s="6">
         <f>SUM(Tasks!I4:I5) * 10</f>
@@ -2056,16 +3070,16 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" s="6">
         <f>SUM(Tasks!I6:I7) * 10</f>
@@ -2083,16 +3097,16 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H5" s="6">
         <f>SUM(Tasks!I8:I9) * 10</f>
@@ -2110,13 +3124,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="5">
         <v>42401</v>
@@ -2137,13 +3151,13 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
       </c>
       <c r="G7" s="5">
         <v>42767</v>
@@ -2164,10 +3178,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="5">
         <v>42401</v>
@@ -2188,10 +3202,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="5">
         <v>42401</v>
@@ -2212,13 +3226,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
         <v>46</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
       </c>
       <c r="G10" s="5">
         <v>42339</v>
@@ -2239,20 +3253,20 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="5">
         <v>42401</v>
       </c>
       <c r="H11" s="6">
         <f>SUM(Tasks!I26:I28) * 10</f>
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2266,13 +3280,13 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
         <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
       </c>
       <c r="G12" s="5">
         <v>42401</v>
@@ -2293,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
         <v>52</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>53</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
       </c>
       <c r="G13" s="5">
         <v>42614</v>
@@ -2320,13 +3334,13 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
         <v>55</v>
       </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="6">
         <f>SUM(Tasks!I35) * 10</f>
@@ -2344,20 +3358,20 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
         <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
       </c>
       <c r="G15" s="5">
         <v>42401</v>
       </c>
       <c r="H15" s="6">
         <f>SUM(Tasks!I36:I39) * 10</f>
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2371,20 +3385,20 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
         <v>59</v>
-      </c>
-      <c r="E16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" t="s">
-        <v>60</v>
       </c>
       <c r="G16" s="5">
         <v>42339</v>
       </c>
       <c r="H16" s="6">
         <f>SUM(Tasks!I40:I43) * 10</f>
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2398,20 +3412,20 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
         <v>61</v>
-      </c>
-      <c r="E17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" t="s">
-        <v>62</v>
       </c>
       <c r="G17" s="5">
         <v>42614</v>
       </c>
       <c r="H17" s="6">
         <f>SUM(Tasks!I44:I46) * 10</f>
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2425,13 +3439,13 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
         <v>63</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>65</v>
       </c>
       <c r="G18" s="5">
         <v>42248</v>
@@ -2452,13 +3466,13 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
         <v>64</v>
-      </c>
-      <c r="F19" t="s">
-        <v>65</v>
       </c>
       <c r="G19" s="5">
         <v>42430</v>
@@ -2479,10 +3493,10 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="5">
         <v>42309</v>
@@ -2503,20 +3517,20 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
         <v>69</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>70</v>
-      </c>
-      <c r="F21" t="s">
-        <v>71</v>
       </c>
       <c r="G21" s="5">
         <v>42705</v>
       </c>
       <c r="H21" s="6">
         <f>SUM(Tasks!I53:I56) * 10</f>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2530,13 +3544,13 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G22" s="5">
         <v>42339</v>
@@ -2557,20 +3571,20 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" t="s">
         <v>73</v>
-      </c>
-      <c r="E23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" t="s">
-        <v>74</v>
       </c>
       <c r="G23" s="5">
         <v>42309</v>
       </c>
       <c r="H23" s="6">
         <f>SUM(Tasks!I60:I63) * 10</f>
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2584,20 +3598,20 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>75</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>76</v>
       </c>
       <c r="G24" s="5">
         <v>42370</v>
       </c>
       <c r="H24" s="6">
         <f>SUM(Tasks!I64:I66) * 10</f>
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2611,20 +3625,20 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
         <v>77</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>78</v>
-      </c>
-      <c r="F25" t="s">
-        <v>79</v>
       </c>
       <c r="G25" s="5">
         <v>42292</v>
       </c>
       <c r="H25" s="6">
         <f>SUM(Tasks!I67:I72) * 10</f>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2638,20 +3652,20 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s">
         <v>80</v>
       </c>
-      <c r="E26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" t="s">
-        <v>81</v>
-      </c>
       <c r="G26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H26" s="6">
         <f>SUM(Tasks!I73:I76) * 10</f>
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2665,20 +3679,20 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" t="s">
         <v>82</v>
       </c>
-      <c r="E27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" t="s">
-        <v>83</v>
-      </c>
       <c r="G27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H27" s="6">
         <f>SUM(Tasks!I77:I80) * 10</f>
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2692,13 +3706,13 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" t="s">
         <v>84</v>
-      </c>
-      <c r="E28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" t="s">
-        <v>85</v>
       </c>
       <c r="G28" s="5">
         <v>42339</v>
@@ -2719,20 +3733,20 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
         <v>86</v>
-      </c>
-      <c r="E29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" t="s">
-        <v>87</v>
       </c>
       <c r="G29" s="5">
         <v>42491</v>
       </c>
       <c r="H29" s="6">
         <f>SUM(Tasks!I84:I87) * 10</f>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2746,13 +3760,13 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" t="s">
         <v>141</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>142</v>
-      </c>
-      <c r="F30" t="s">
-        <v>143</v>
       </c>
       <c r="G30" s="5">
         <v>42430</v>
@@ -2773,13 +3787,13 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" t="s">
         <v>144</v>
-      </c>
-      <c r="E31" t="s">
-        <v>142</v>
-      </c>
-      <c r="F31" t="s">
-        <v>145</v>
       </c>
       <c r="G31" s="5">
         <v>42614</v>
@@ -2800,13 +3814,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" t="s">
         <v>146</v>
-      </c>
-      <c r="E32" t="s">
-        <v>142</v>
-      </c>
-      <c r="F32" t="s">
-        <v>147</v>
       </c>
       <c r="G32" s="5">
         <v>42430</v>
@@ -2827,16 +3841,16 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" t="s">
         <v>89</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>90</v>
       </c>
-      <c r="F33" t="s">
-        <v>91</v>
-      </c>
       <c r="G33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H33" s="6">
         <f>SUM(Tasks!I97:I99) * 10</f>
@@ -2854,16 +3868,16 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H34" s="6">
         <f>SUM(Tasks!I100:I102) * 10</f>
@@ -2881,16 +3895,16 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" t="s">
         <v>93</v>
       </c>
-      <c r="E35" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" t="s">
-        <v>94</v>
-      </c>
       <c r="G35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H35" s="6">
         <f>SUM(Tasks!I103:I106) * 10</f>
@@ -2908,16 +3922,16 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" t="s">
         <v>95</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>96</v>
-      </c>
-      <c r="G36" t="s">
-        <v>97</v>
       </c>
       <c r="H36" s="6">
         <f>SUM(Tasks!I107:I112) * 10</f>
@@ -2935,10 +3949,10 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" t="s">
         <v>99</v>
-      </c>
-      <c r="F37" t="s">
-        <v>100</v>
       </c>
       <c r="G37" s="5">
         <v>42401</v>
@@ -2959,10 +3973,10 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G38" s="5">
         <v>42401</v>
@@ -2983,10 +3997,10 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G39" s="5">
         <v>42401</v>
@@ -3007,13 +4021,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" t="s">
         <v>103</v>
       </c>
-      <c r="E40" t="s">
-        <v>104</v>
-      </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G40" s="5">
         <v>42248</v>
@@ -3034,13 +4048,13 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" t="s">
         <v>105</v>
-      </c>
-      <c r="E41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" t="s">
-        <v>106</v>
       </c>
       <c r="G41" s="5">
         <v>42401</v>
@@ -3061,13 +4075,13 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G42" s="5">
         <v>42401</v>
@@ -3088,13 +4102,13 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G43" s="5">
         <v>42401</v>
@@ -3115,13 +4129,13 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G44" s="5">
         <v>42401</v>
@@ -3142,10 +4156,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G45" s="5">
         <v>42401</v>
@@ -3166,13 +4180,13 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" t="s">
         <v>111</v>
-      </c>
-      <c r="E46" t="s">
-        <v>104</v>
-      </c>
-      <c r="F46" t="s">
-        <v>112</v>
       </c>
       <c r="G46" s="5">
         <v>42248</v>
@@ -3193,13 +4207,13 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" t="s">
         <v>113</v>
-      </c>
-      <c r="E47" t="s">
-        <v>104</v>
-      </c>
-      <c r="F47" t="s">
-        <v>114</v>
       </c>
       <c r="G47" s="5">
         <v>42401</v>
@@ -3220,13 +4234,13 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G48" s="5">
         <v>42401</v>
@@ -3247,10 +4261,10 @@
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G49" s="5">
         <v>42401</v>
@@ -3271,13 +4285,13 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" t="s">
         <v>117</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>118</v>
-      </c>
-      <c r="F50" t="s">
-        <v>119</v>
       </c>
       <c r="G50" s="5">
         <v>42491</v>
@@ -3298,16 +4312,16 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" t="s">
         <v>120</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>121</v>
       </c>
-      <c r="F51" t="s">
-        <v>122</v>
-      </c>
       <c r="G51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H51" s="6">
         <f>SUM(Tasks!I152:I154) * 10</f>
@@ -3325,16 +4339,16 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" t="s">
         <v>123</v>
       </c>
-      <c r="E52" t="s">
-        <v>121</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>124</v>
-      </c>
-      <c r="G52" t="s">
-        <v>125</v>
       </c>
       <c r="H52" s="6">
         <f>SUM(Tasks!I155:I157) * 10</f>
@@ -3352,13 +4366,13 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G53" s="5">
         <v>42262</v>
@@ -3379,16 +4393,16 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" t="s">
         <v>127</v>
       </c>
-      <c r="E54" t="s">
-        <v>64</v>
-      </c>
-      <c r="F54" t="s">
-        <v>128</v>
-      </c>
       <c r="G54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H54" s="6">
         <f>SUM(Tasks!I159:I161) * 10</f>
@@ -3406,13 +4420,13 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" t="s">
         <v>129</v>
-      </c>
-      <c r="E55" t="s">
-        <v>104</v>
-      </c>
-      <c r="F55" t="s">
-        <v>130</v>
       </c>
       <c r="G55" s="5">
         <v>42401</v>
@@ -3433,13 +4447,13 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" t="s">
         <v>131</v>
-      </c>
-      <c r="E56" t="s">
-        <v>36</v>
-      </c>
-      <c r="F56" t="s">
-        <v>132</v>
       </c>
       <c r="G56" s="5">
         <v>42401</v>
@@ -3460,13 +4474,13 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G57" s="5">
         <v>42401</v>
@@ -3489,18 +4503,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="H170" sqref="H170"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="95.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="77.88671875" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="127.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -3511,28 +4527,28 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
         <v>134</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" t="s">
-        <v>135</v>
-      </c>
       <c r="H1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" t="s">
         <v>139</v>
       </c>
-      <c r="I1" t="s">
-        <v>140</v>
-      </c>
       <c r="J1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3549,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F2" s="5">
         <v>42282</v>
@@ -3565,7 +4581,7 @@
         <v>5</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3582,7 +4598,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F3" s="5">
         <v>42308</v>
@@ -3598,7 +4614,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3615,7 +4631,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F4" s="5">
         <v>42319</v>
@@ -3631,7 +4647,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3648,7 +4664,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F5" s="5">
         <v>42353</v>
@@ -3663,7 +4679,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>5</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="9" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -3679,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F6" s="5">
         <v>42241</v>
@@ -3694,7 +4712,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>5</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="9" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
@@ -3710,7 +4730,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F7" s="5">
         <v>42353</v>
@@ -3726,7 +4746,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3743,7 +4763,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8" s="5">
         <v>42285</v>
@@ -3759,7 +4779,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3776,7 +4796,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F9" s="5">
         <v>42353</v>
@@ -3791,7 +4811,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>5</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -3807,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F10" s="5">
         <v>42352</v>
@@ -3822,7 +4844,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -3838,7 +4862,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F11" s="5">
         <v>42389</v>
@@ -3853,7 +4877,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="9" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
@@ -3869,7 +4895,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F12" s="5">
         <v>42424</v>
@@ -3884,7 +4910,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="9" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -3900,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F13" s="5">
         <v>42166</v>
@@ -3915,7 +4943,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -3931,7 +4961,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F14" s="5">
         <v>42309</v>
@@ -3946,7 +4976,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="9" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
@@ -3962,7 +4994,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F15" s="5">
         <v>42369</v>
@@ -3993,7 +5025,7 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F16" s="5">
         <v>42430</v>
@@ -4024,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F17" s="5">
         <v>42300</v>
@@ -4039,7 +5071,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J17" s="9"/>
+      <c r="J17" s="9" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
@@ -4055,7 +5089,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F18" s="5">
         <v>42377</v>
@@ -4070,7 +5104,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="9"/>
+      <c r="J18" s="9" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
@@ -4086,7 +5122,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F19" s="5">
         <v>42418</v>
@@ -4117,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F20" s="5">
         <v>42405</v>
@@ -4148,7 +5184,7 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F21" s="5">
         <v>42399</v>
@@ -4179,7 +5215,7 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F22" s="5">
         <v>42411</v>
@@ -4210,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F23" s="5">
         <v>42307</v>
@@ -4225,7 +5261,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="9"/>
+      <c r="J23" s="9" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
@@ -4241,7 +5279,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F24" s="5">
         <v>42309</v>
@@ -4256,7 +5294,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J24" s="9"/>
+      <c r="J24" s="9" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
@@ -4272,7 +5312,7 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F25" s="5">
         <v>42339</v>
@@ -4287,7 +5327,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3</v>
       </c>
-      <c r="J25" s="9"/>
+      <c r="J25" s="9" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -4303,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F26" s="5">
         <v>42278</v>
@@ -4318,7 +5360,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J26" s="9"/>
+      <c r="J26" s="9" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
@@ -4334,7 +5378,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F27" s="5">
         <v>42292</v>
@@ -4349,7 +5393,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J27" s="9"/>
+      <c r="J27" s="9" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
@@ -4365,7 +5411,7 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F28" s="5">
         <v>42383</v>
@@ -4374,11 +5420,11 @@
         <v>3</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28" s="9"/>
     </row>
@@ -4396,7 +5442,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F29" s="5">
         <v>42248</v>
@@ -4411,7 +5457,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J29" s="9"/>
+      <c r="J29" s="9" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
@@ -4427,7 +5475,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F30" s="5">
         <v>42278</v>
@@ -4442,7 +5490,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J30" s="9"/>
+      <c r="J30" s="9" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
@@ -4458,7 +5508,7 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F31" s="5">
         <v>42401</v>
@@ -4473,7 +5523,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3</v>
       </c>
-      <c r="J31" s="9"/>
+      <c r="J31" s="9" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
@@ -4489,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F32" s="5">
         <v>42401</v>
@@ -4520,7 +5572,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F33" s="5">
         <v>42461</v>
@@ -4551,7 +5603,7 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F34" s="5">
         <v>42614</v>
@@ -4582,7 +5634,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35" s="5">
         <v>42338</v>
@@ -4597,7 +5649,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>10</v>
       </c>
-      <c r="J35" s="9"/>
+      <c r="J35" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
@@ -4613,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F36" s="5">
         <v>42307</v>
@@ -4628,7 +5682,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J36" s="9"/>
+      <c r="J36" s="9" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
@@ -4644,7 +5700,7 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F37" s="5">
         <v>42338</v>
@@ -4653,13 +5709,15 @@
         <v>2.5</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
@@ -4675,7 +5733,7 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F38" s="5">
         <v>42369</v>
@@ -4684,13 +5742,15 @@
         <v>2.5</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
@@ -4706,7 +5766,7 @@
         <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F39" s="5">
         <v>42399</v>
@@ -4715,13 +5775,15 @@
         <v>2.5</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -4737,7 +5799,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F40" s="5">
         <v>42309</v>
@@ -4752,7 +5814,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J40" s="9"/>
+      <c r="J40" s="9" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
@@ -4768,7 +5832,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F41" s="5">
         <v>42323</v>
@@ -4777,13 +5841,15 @@
         <v>2.5</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
@@ -4799,7 +5865,7 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F42" s="5">
         <v>42348</v>
@@ -4814,7 +5880,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="9"/>
+      <c r="J42" s="9" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
@@ -4830,7 +5898,7 @@
         <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F43" s="5">
         <v>42368</v>
@@ -4861,7 +5929,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F44" s="5">
         <v>42339</v>
@@ -4876,7 +5944,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J44" s="9"/>
+      <c r="J44" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
@@ -4892,20 +5962,20 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
-      </c>
-      <c r="F45" s="5">
-        <v>42124</v>
+        <v>136</v>
+      </c>
+      <c r="F45" s="10">
+        <v>42490</v>
       </c>
       <c r="G45">
         <v>3</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" s="9"/>
     </row>
@@ -4923,20 +5993,20 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
-      </c>
-      <c r="F46" s="5">
-        <v>42247</v>
+        <v>137</v>
+      </c>
+      <c r="F46" s="10">
+        <v>42613</v>
       </c>
       <c r="G46">
         <v>3.5</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="J46" s="9"/>
     </row>
@@ -4954,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F47" s="5">
         <v>42244</v>
@@ -4969,7 +6039,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>5</v>
       </c>
-      <c r="J47" s="9"/>
+      <c r="J47" s="9" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
@@ -4985,7 +6057,7 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F48" s="5">
         <v>42277</v>
@@ -5000,7 +6072,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>5</v>
       </c>
-      <c r="J48" s="9"/>
+      <c r="J48" s="9" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
@@ -5016,10 +6090,10 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>310</v>
-      </c>
-      <c r="F49" s="5">
-        <v>42018</v>
+        <v>303</v>
+      </c>
+      <c r="F49" s="10">
+        <v>42383</v>
       </c>
       <c r="G49">
         <v>2.5</v>
@@ -5031,7 +6105,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J49" s="9"/>
+      <c r="J49" s="9" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
@@ -5047,10 +6123,10 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>311</v>
-      </c>
-      <c r="F50" s="5">
-        <v>42018</v>
+        <v>304</v>
+      </c>
+      <c r="F50" s="10">
+        <v>42383</v>
       </c>
       <c r="G50">
         <v>3.5</v>
@@ -5078,10 +6154,10 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>312</v>
-      </c>
-      <c r="F51" s="5">
-        <v>42018</v>
+        <v>305</v>
+      </c>
+      <c r="F51" s="10">
+        <v>42383</v>
       </c>
       <c r="G51">
         <v>4</v>
@@ -5109,9 +6185,9 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>233</v>
-      </c>
-      <c r="F52" s="5">
+        <v>232</v>
+      </c>
+      <c r="F52" s="10">
         <v>42628</v>
       </c>
       <c r="G52">
@@ -5140,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F53" s="5">
         <v>42309</v>
@@ -5149,13 +6225,15 @@
         <v>2.5</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>2.5</v>
-      </c>
-      <c r="J53" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
@@ -5171,7 +6249,7 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F54" s="5">
         <v>42353</v>
@@ -5180,13 +6258,15 @@
         <v>2.5</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>2.5</v>
-      </c>
-      <c r="J54" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
@@ -5202,7 +6282,7 @@
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F55" s="5">
         <v>42399</v>
@@ -5217,7 +6297,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J55" s="9"/>
+      <c r="J55" s="9" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
@@ -5233,7 +6315,7 @@
         <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F56" s="5">
         <v>42459</v>
@@ -5264,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F57" s="5">
         <v>42309</v>
@@ -5273,13 +6355,15 @@
         <v>3.5</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>3.5</v>
-      </c>
-      <c r="J57" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
@@ -5295,7 +6379,7 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F58" s="5">
         <v>42323</v>
@@ -5310,7 +6394,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3</v>
       </c>
-      <c r="J58" s="9"/>
+      <c r="J58" s="9" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
@@ -5326,7 +6412,7 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F59" s="5">
         <v>42328</v>
@@ -5335,13 +6421,15 @@
         <v>3.5</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
@@ -5357,7 +6445,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F60" s="5">
         <v>42287</v>
@@ -5372,7 +6460,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J60" s="9"/>
+      <c r="J60" s="9" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
@@ -5388,7 +6478,7 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F61" s="5">
         <v>42307</v>
@@ -5403,7 +6493,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J61" s="9"/>
+      <c r="J61" s="9" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
@@ -5419,7 +6511,7 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F62" s="5">
         <v>42338</v>
@@ -5428,13 +6520,15 @@
         <v>2.5</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>2.5</v>
-      </c>
-      <c r="J62" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
@@ -5450,7 +6544,7 @@
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F63" s="5">
         <v>42368</v>
@@ -5481,7 +6575,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F64" s="5">
         <v>42034</v>
@@ -5496,7 +6590,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J64" s="9"/>
+      <c r="J64" s="9" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
@@ -5512,7 +6608,7 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F65" s="5">
         <v>42036</v>
@@ -5527,7 +6623,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J65" s="9"/>
+      <c r="J65" s="9" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
@@ -5543,7 +6641,7 @@
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F66" s="5">
         <v>42338</v>
@@ -5552,13 +6650,15 @@
         <v>3</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>3</v>
-      </c>
-      <c r="J66" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
@@ -5574,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F67" s="5">
         <v>42226</v>
@@ -5589,7 +6689,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>1</v>
       </c>
-      <c r="J67" s="9"/>
+      <c r="J67" s="9" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
@@ -5605,7 +6707,7 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F68" s="5">
         <v>42277</v>
@@ -5620,7 +6722,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2</v>
       </c>
-      <c r="J68" s="9"/>
+      <c r="J68" s="9" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
@@ -5636,7 +6740,7 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F69" s="5">
         <v>42292</v>
@@ -5645,13 +6749,15 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="J69" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
@@ -5667,7 +6773,7 @@
         <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F70" s="5">
         <v>42353</v>
@@ -5676,13 +6782,15 @@
         <v>2</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J70" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
@@ -5698,7 +6806,7 @@
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F71" s="5">
         <v>42368</v>
@@ -5729,7 +6837,7 @@
         <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F72" s="5">
         <v>42399</v>
@@ -5760,7 +6868,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F73" s="5">
         <v>42248</v>
@@ -5775,7 +6883,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J73" s="9"/>
+      <c r="J73" s="9" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
@@ -5791,7 +6901,7 @@
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F74" s="5">
         <v>42278</v>
@@ -5822,7 +6932,7 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F75" s="5">
         <v>42368</v>
@@ -5853,7 +6963,7 @@
         <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F76" s="5">
         <v>42384</v>
@@ -5862,13 +6972,15 @@
         <v>2.5</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J76" s="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
@@ -5884,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F77" s="5">
         <v>42323</v>
@@ -5899,7 +7011,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J77" s="9"/>
+      <c r="J77" s="9" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
@@ -5915,7 +7029,7 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F78" s="5">
         <v>42338</v>
@@ -5930,7 +7044,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J78" s="9"/>
+      <c r="J78" s="9" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
@@ -5946,7 +7062,7 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F79" s="5">
         <v>42339</v>
@@ -5955,13 +7071,15 @@
         <v>2.5</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J79" s="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
@@ -5977,7 +7095,7 @@
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F80" s="5">
         <v>42398</v>
@@ -5992,7 +7110,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J80" s="9"/>
+      <c r="J80" s="9" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
@@ -6008,7 +7128,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F81" s="5">
         <v>42309</v>
@@ -6023,7 +7143,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3</v>
       </c>
-      <c r="J81" s="9"/>
+      <c r="J81" s="9" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
@@ -6039,7 +7161,7 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F82" s="5">
         <v>42353</v>
@@ -6054,7 +7176,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J82" s="9"/>
+      <c r="J82" s="9" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
@@ -6070,7 +7194,7 @@
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F83" s="5">
         <v>42368</v>
@@ -6085,7 +7209,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J83" s="9"/>
+      <c r="J83" s="9" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
@@ -6101,7 +7227,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F84" s="5">
         <v>42379</v>
@@ -6110,13 +7236,15 @@
         <v>2.5</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J84" s="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
@@ -6132,7 +7260,7 @@
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F85" s="5">
         <v>42391</v>
@@ -6147,7 +7275,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J85" s="9"/>
+      <c r="J85" s="9" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
@@ -6163,7 +7293,7 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F86" s="5">
         <v>42430</v>
@@ -6194,7 +7324,7 @@
         <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F87" s="5">
         <v>42491</v>
@@ -6225,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F88" s="5">
         <v>42277</v>
@@ -6240,7 +7370,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J88" s="9"/>
+      <c r="J88" s="9" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
@@ -6256,7 +7388,7 @@
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F89" s="5">
         <v>42415</v>
@@ -6287,7 +7419,7 @@
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F90" s="5">
         <v>42459</v>
@@ -6318,7 +7450,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F91" s="5">
         <v>42399</v>
@@ -6349,7 +7481,7 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F92" s="5">
         <v>42428</v>
@@ -6380,7 +7512,7 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F93" s="5">
         <v>42461</v>
@@ -6411,7 +7543,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F94" s="5">
         <v>42343</v>
@@ -6426,7 +7558,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J94" s="9"/>
+      <c r="J94" s="9" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
@@ -6442,7 +7576,7 @@
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F95" s="5">
         <v>42368</v>
@@ -6457,7 +7591,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J95" s="9"/>
+      <c r="J95" s="9" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
@@ -6473,7 +7609,7 @@
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F96" s="5">
         <v>42459</v>
@@ -6504,7 +7640,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F97" s="5">
         <v>42156</v>
@@ -6519,7 +7655,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J97" s="9"/>
+      <c r="J97" s="9" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
@@ -6535,7 +7673,7 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F98" s="5">
         <v>42248</v>
@@ -6550,7 +7688,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J98" s="9"/>
+      <c r="J98" s="9" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
@@ -6566,7 +7706,7 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F99" s="5">
         <v>42319</v>
@@ -6581,7 +7721,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3</v>
       </c>
-      <c r="J99" s="9"/>
+      <c r="J99" s="9" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
@@ -6597,7 +7739,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F100" s="5">
         <v>42246</v>
@@ -6612,7 +7754,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J100" s="9"/>
+      <c r="J100" s="9" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
@@ -6628,7 +7772,7 @@
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F101" s="5">
         <v>42277</v>
@@ -6643,7 +7787,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J101" s="9"/>
+      <c r="J101" s="9" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
@@ -6659,7 +7805,7 @@
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F102" s="5">
         <v>42368</v>
@@ -6674,7 +7820,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3</v>
       </c>
-      <c r="J102" s="9"/>
+      <c r="J102" s="9" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
@@ -6690,7 +7838,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F103" s="5">
         <v>42368</v>
@@ -6705,7 +7853,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J103" s="9"/>
+      <c r="J103" s="9" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
@@ -6721,7 +7871,7 @@
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F104" s="5">
         <v>42368</v>
@@ -6736,7 +7886,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J104" s="9"/>
+      <c r="J104" s="9" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
@@ -6752,7 +7904,7 @@
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F105" s="5">
         <v>42368</v>
@@ -6767,7 +7919,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J105" s="9"/>
+      <c r="J105" s="9" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
@@ -6783,7 +7937,7 @@
         <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F106" s="5">
         <v>42368</v>
@@ -6798,7 +7952,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J106" s="9"/>
+      <c r="J106" s="9" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
@@ -6814,7 +7970,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F107" s="5">
         <v>42036</v>
@@ -6829,7 +7985,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>1</v>
       </c>
-      <c r="J107" s="9"/>
+      <c r="J107" s="9" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
@@ -6845,7 +8003,7 @@
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F108" s="5">
         <v>42124</v>
@@ -6860,7 +8018,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>1</v>
       </c>
-      <c r="J108" s="9"/>
+      <c r="J108" s="9" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
@@ -6876,7 +8036,7 @@
         <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F109" s="5">
         <v>42185</v>
@@ -6891,7 +8051,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2</v>
       </c>
-      <c r="J109" s="9"/>
+      <c r="J109" s="9" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
@@ -6907,7 +8069,7 @@
         <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F110" s="5">
         <v>42124</v>
@@ -6922,7 +8084,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2</v>
       </c>
-      <c r="J110" s="9"/>
+      <c r="J110" s="9" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
@@ -6938,7 +8102,7 @@
         <v>5</v>
       </c>
       <c r="E111" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F111" s="5">
         <v>42430</v>
@@ -6953,7 +8117,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J111" s="9"/>
+      <c r="J111" s="9" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
@@ -6969,7 +8135,7 @@
         <v>6</v>
       </c>
       <c r="E112" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F112" s="5">
         <v>42551</v>
@@ -7000,7 +8166,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F113" s="5">
         <v>42339</v>
@@ -7015,7 +8181,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>10</v>
       </c>
-      <c r="J113" s="9"/>
+      <c r="J113" s="9" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
@@ -7031,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F114" s="5">
         <v>42217</v>
@@ -7046,7 +8214,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J114" s="9"/>
+      <c r="J114" s="9" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
@@ -7062,7 +8232,7 @@
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F115" s="5">
         <v>42246</v>
@@ -7077,7 +8247,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J115" s="9"/>
+      <c r="J115" s="9" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
@@ -7093,7 +8265,7 @@
         <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F116" s="5">
         <v>42248</v>
@@ -7108,7 +8280,9 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3</v>
       </c>
-      <c r="J116" s="9"/>
+      <c r="J116" s="9" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
@@ -7124,7 +8298,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F117" s="5">
         <v>42399</v>
@@ -7155,7 +8329,7 @@
         <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F118" s="5">
         <v>42428</v>
@@ -7186,7 +8360,7 @@
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F119" s="5">
         <v>42459</v>
@@ -7217,7 +8391,7 @@
         <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F120" s="5">
         <v>42338</v>
@@ -7248,7 +8422,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F121" s="5">
         <v>42217</v>
@@ -7279,7 +8453,7 @@
         <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F122" s="5">
         <v>42248</v>
@@ -7310,7 +8484,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F123" s="5">
         <v>42217</v>
@@ -7341,7 +8515,7 @@
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F124" s="5">
         <v>42674</v>
@@ -7372,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="E125" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F125" s="5">
         <v>42384</v>
@@ -7403,7 +8577,7 @@
         <v>4</v>
       </c>
       <c r="E126" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F126" s="5">
         <v>42428</v>
@@ -7434,7 +8608,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F127" s="5">
         <v>42309</v>
@@ -7465,7 +8639,7 @@
         <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F128" s="5">
         <v>42368</v>
@@ -7496,7 +8670,7 @@
         <v>3</v>
       </c>
       <c r="E129" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F129" s="5">
         <v>42583</v>
@@ -7527,7 +8701,7 @@
         <v>4</v>
       </c>
       <c r="E130" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F130" s="5">
         <v>42597</v>
@@ -7558,7 +8732,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F131" s="5">
         <v>42292</v>
@@ -7589,7 +8763,7 @@
         <v>2</v>
       </c>
       <c r="E132" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F132" s="5">
         <v>42309</v>
@@ -7620,7 +8794,7 @@
         <v>3</v>
       </c>
       <c r="E133" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F133" s="5">
         <v>42338</v>
@@ -7651,7 +8825,7 @@
         <v>1</v>
       </c>
       <c r="E134" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F134" s="5">
         <v>42368</v>
@@ -7682,7 +8856,7 @@
         <v>2</v>
       </c>
       <c r="E135" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F135" s="5">
         <v>42384</v>
@@ -7713,7 +8887,7 @@
         <v>3</v>
       </c>
       <c r="E136" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F136" s="5">
         <v>42428</v>
@@ -7744,7 +8918,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F137" s="5">
         <v>42368</v>
@@ -7775,7 +8949,7 @@
         <v>2</v>
       </c>
       <c r="E138" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F138" s="5">
         <v>42374</v>
@@ -7806,7 +8980,7 @@
         <v>3</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F139" s="5">
         <v>42428</v>
@@ -7837,7 +9011,7 @@
         <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F140" s="5">
         <v>42217</v>
@@ -7868,7 +9042,7 @@
         <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F141" s="5">
         <v>42248</v>
@@ -7899,7 +9073,7 @@
         <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F142" s="5">
         <v>42287</v>
@@ -7930,7 +9104,7 @@
         <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F143" s="5">
         <v>42384</v>
@@ -7961,7 +9135,7 @@
         <v>3</v>
       </c>
       <c r="E144" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F144" s="5">
         <v>42428</v>
@@ -7992,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F145" s="5">
         <v>42389</v>
@@ -8023,7 +9197,7 @@
         <v>2</v>
       </c>
       <c r="E146" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F146" s="5">
         <v>42401</v>
@@ -8054,7 +9228,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F147" s="5">
         <v>42338</v>
@@ -8085,7 +9259,7 @@
         <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F148" s="5">
         <v>42384</v>
@@ -8116,7 +9290,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F149" s="5">
         <v>42401</v>
@@ -8147,7 +9321,7 @@
         <v>2</v>
       </c>
       <c r="E150" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F150" s="5">
         <v>42430</v>
@@ -8178,7 +9352,7 @@
         <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F151" s="5">
         <v>42491</v>
@@ -8209,7 +9383,7 @@
         <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F152" s="5">
         <v>42278</v>
@@ -8240,7 +9414,7 @@
         <v>2</v>
       </c>
       <c r="E153" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F153" s="5">
         <v>42384</v>
@@ -8271,7 +9445,7 @@
         <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F154" s="5">
         <v>42399</v>
@@ -8302,7 +9476,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F155" s="5">
         <v>42308</v>
@@ -8333,7 +9507,7 @@
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F156" s="5">
         <v>42339</v>
@@ -8364,7 +9538,7 @@
         <v>3</v>
       </c>
       <c r="E157" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F157" s="5">
         <v>42384</v>
@@ -8395,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F158" s="5">
         <v>42252</v>
@@ -8426,7 +9600,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F159" s="5">
         <v>41547</v>
@@ -8457,7 +9631,7 @@
         <v>2</v>
       </c>
       <c r="E160" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F160" s="5">
         <v>42262</v>
@@ -8488,7 +9662,7 @@
         <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F161" s="5">
         <v>42368</v>
@@ -8519,7 +9693,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F162" s="5">
         <v>42185</v>
@@ -8550,7 +9724,7 @@
         <v>2</v>
       </c>
       <c r="E163" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F163" s="5">
         <v>42185</v>
@@ -8581,7 +9755,7 @@
         <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F164" s="5">
         <v>42459</v>
@@ -8612,7 +9786,7 @@
         <v>4</v>
       </c>
       <c r="E165" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F165" s="5">
         <v>42459</v>
@@ -8643,7 +9817,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F166" s="5">
         <v>42307</v>
@@ -8674,7 +9848,7 @@
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F167" s="5">
         <v>42368</v>
@@ -8705,7 +9879,7 @@
         <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F168" s="5">
         <v>42428</v>
@@ -8736,7 +9910,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F169" s="5">
         <v>42338</v>
@@ -8767,7 +9941,7 @@
         <v>2</v>
       </c>
       <c r="E170" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F170" s="5">
         <v>42338</v>
@@ -8786,8 +9960,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="50" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/UploadedFiles/Updated Scorecard Tables.xlsx
+++ b/UploadedFiles/Updated Scorecard Tables.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\MKCoop\UploadedFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ameyers\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5952" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5952" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Perspectives" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="462">
   <si>
     <t>PID</t>
   </si>
@@ -936,6 +936,12 @@
     <t>Post to Board Portal for review</t>
   </si>
   <si>
+    <t>…………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………….</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -1177,6 +1183,9 @@
   </si>
   <si>
     <t xml:space="preserve">Complete. </t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
   <si>
     <r>
@@ -1758,6 +1767,180 @@
       </rPr>
       <t xml:space="preserve">Grain quality grades have been determined.  Waiting on financial dashboards for locations to examine results and apply to new incentive program.  </t>
     </r>
+  </si>
+  <si>
+    <t>Have 25 discussions in progress.  Will develop strategies to communicate message to Directors.  Will organize meetings with large, strategic producers in Sumner County region.</t>
+  </si>
+  <si>
+    <t>A list is active and updated every 6 months to capture additions and changes.  They are prioritized by urgency and grouped by large and small projects.</t>
+  </si>
+  <si>
+    <t>Several have been identified.</t>
+  </si>
+  <si>
+    <t>A list is started with emphasis on fertilizer/grain retailer in eastern KS.</t>
+  </si>
+  <si>
+    <t>Financial dashboards are in development.  Monthly ratios are currently being shared with key employees to increase exposure to location specific financial data.</t>
+  </si>
+  <si>
+    <t>Committee is meeting on a regular basis.  They are identifying quality, cost saving projects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposal has been brought to the Board examining business over the past 2 years. </t>
+  </si>
+  <si>
+    <t>Next steps for preparedness are in progress.  Legal counsel has provided guidance that this will be a Director Policy change.</t>
+  </si>
+  <si>
+    <t>Talking points are created and saved in the M-drive under Strategic Planning.  Sumner County points are drafted.</t>
+  </si>
+  <si>
+    <t>BOD development sessions are scheduled annually to keep momentum in continuing education.</t>
+  </si>
+  <si>
+    <t>Expanded beyond Field Marketers to involve all agronomy hubs.  Incentives are currently being developed and on pace for September.</t>
+  </si>
+  <si>
+    <t>Added 123 new loans, 46% increase over LY.  Increased loan commitments 13 MIL. Utilization is 30% measured in calendar year.  Multiple marketing campaigns tied to CFA.</t>
+  </si>
+  <si>
+    <t>Currently testing the CRM module and will roll out and train by FEB.</t>
+  </si>
+  <si>
+    <t>60 accounts have been identified and assigned to Field Marketers, MAAs, and Grain Marketers.</t>
+  </si>
+  <si>
+    <t>Complete.  Met with LOL in serveral planning sessions to determine needs and put together a phase approach to the portal project.</t>
+  </si>
+  <si>
+    <t>Complete.  New website is launched fulfilling phase 1.</t>
+  </si>
+  <si>
+    <t>Researched software options with LOL that will integrate with new MKC portal.</t>
+  </si>
+  <si>
+    <t>Universal questions for the review are complete.  Survey will launch through CRM.  Top 10 accounts for each Field Marketer time-lined to complete by APR 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRM will launch surveys.  Calendar is created for surveys to conduct throughout the year.  Questions are being finalized.  </t>
+  </si>
+  <si>
+    <t>Phase 1 completion of the website is driving timeline for video.  Scripts are ready.  Field Staff will be trained and Champions identified for each location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete.  The Committee has completed organization by department in the M-drive and SOP is active.  Champions are identified for each department to maintain consistency and updates.  Committee will investigate options for distribution. </t>
+  </si>
+  <si>
+    <t>Changes are made to seed and CPP contracts.  Training is complete.  Fertilizer will not change at this time.  Energy is in progress and pending changes based on access to sales contract module.</t>
+  </si>
+  <si>
+    <t>3rd annual EPP successful.  FLM+ sales training will include generational selling topic in curriculum starting in FEB. Guest speaker, Bruce Tulgan is scheduled for sessions in FEB specifically covering differences in generations.</t>
+  </si>
+  <si>
+    <t>6 growers in attendance.  Follow up are in progress.</t>
+  </si>
+  <si>
+    <t>Continuing to review software partners to provide benchmarking and business alignment with MKC.</t>
+  </si>
+  <si>
+    <t>All of the EPP invitees are tracked in CRM.  Exploring whether CRM will build the reports or if MKC will build internally.</t>
+  </si>
+  <si>
+    <t>New website content is updated with enhancements to come.</t>
+  </si>
+  <si>
+    <t>Awaiting section 333 commercial exemption license.  Services will launch thereafter.</t>
+  </si>
+  <si>
+    <t>3 are complete and 5 more are scheduled to complete by FEB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategic Recap Meeting is scheduled in March and a new process of consistently reviewing an Initiative in Review by each Lead Champion in Monthly Manager's Meetings has been adopted.  </t>
+  </si>
+  <si>
+    <t>Complete.  New template is being used in each location's Monthly Team Meetings and contains consistent messaging for the Initiative in Review.</t>
+  </si>
+  <si>
+    <t>Nichole, Matt, Location Managers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are leveraging the reach of the employee newsletter and incorporating an Initiative article each month.  Initiatives in Review are housed in the M-drive and are distributed with the Monthly Team Meeting Agendas.  </t>
+  </si>
+  <si>
+    <t>Daily safety meetings are in progress.  There is a safety article in each employee newsletter.  There is a new accident investigation process and annual Nationwide training sessions and agronomy safety sessions are scheduled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilize monthly customer service topics to review in each location's team meetings.  Team meeting review of Courtesy is scheduled 3x year. </t>
+  </si>
+  <si>
+    <t>Redesigned image audit template and SOP.  Image audits are done 2X year in March and September.</t>
+  </si>
+  <si>
+    <t>Celebrated in Monthly Manager Meetings.  Created a sub committee of MKC alumni to ensure standards for incentives are followed.</t>
+  </si>
+  <si>
+    <t>Complete.  Year 2 analysis is underway.  Compared to LOL peers, we are in alignment with industry standards.</t>
+  </si>
+  <si>
+    <t>Initial incentive measurements have been established.  Company standards are in place with location specific standards to follow.</t>
+  </si>
+  <si>
+    <t>ES will be completed EOM February.  Data analysis will follow and targets will be developed from those results.</t>
+  </si>
+  <si>
+    <t>Newspaper ads are current.  Ads will be posted in Bluestem retirement community newsletters.</t>
+  </si>
+  <si>
+    <t>Adding 2 new questions to ES specifically to measure quality of life.  Results may indicate a better method to match job descriptions to employee's desired measurements.</t>
+  </si>
+  <si>
+    <t>Complete.  Requires additional feedback from Managers and will organize roll out to meet timeline.</t>
+  </si>
+  <si>
+    <t>metrics are defined.  Panel review will be scheduled to review current list of HPEs.</t>
+  </si>
+  <si>
+    <t>PDP form is approved.  IDPs for HPEs to be reviewed in MAR/APR.</t>
+  </si>
+  <si>
+    <t>Checklist is developed and will connect to IDPs.</t>
+  </si>
+  <si>
+    <t>Complete.  Have investigated provider options.  With current benefit changes, we will manage our own wellness plan while utilizing and current provider tools.</t>
+  </si>
+  <si>
+    <t>Razor tracking almost 100% installed and being utilized.  Data is being collected.  Software changes will enhance functionality.  SOP pending final draft.  Currently exploring new uses for razor tracking.</t>
+  </si>
+  <si>
+    <t>Purchased dashboard/analytic software platform.  Identified key dashboards for MKC and TMA and broke them down in 2 phases for completion.</t>
+  </si>
+  <si>
+    <t>Complete.  Grain quality scorecards are incorporated into new incentive program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenarios have been identified. </t>
+  </si>
+  <si>
+    <t>More to come.</t>
+  </si>
+  <si>
+    <t>Complete.  Met with LOL in several planning sessions to determine needs and put together a phase approach to the portal project.</t>
+  </si>
+  <si>
+    <t>Establish YouTube video and hold training sessions for basic navigation of existing customer portal</t>
+  </si>
+  <si>
+    <t>Invite 4 growers from targeted geography to Emerging Producers Program with follow-up discussions afterward</t>
+  </si>
+  <si>
+    <t>Investigate opportunities to improve peak-time workforce needs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assistant Field Marketer and Assistant Agronomy Ops programs very successful.  30%+ of interns are permanently hired after participating in internship program.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performa is developed and TMA is reviewing it for ownership.  Opportunities for improvement include back hauling fertilizer.  Utilizing MKC fleet and drivers to haul TMA commodities when available.  Additional planning sessions are being scheduled. </t>
   </si>
 </sst>
 </file>
@@ -1878,7 +2061,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1902,11 +2085,21 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2019,9 +2212,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
@@ -2168,40 +2358,41 @@
   <tableColumns count="3">
     <tableColumn id="1" name="PID"/>
     <tableColumn id="2" name="Description"/>
-    <tableColumn id="3" name="Progress" dataDxfId="13"/>
+    <tableColumn id="3" name="Progress" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E18" totalsRowShown="0" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E18" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="A1:E18"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="PID " dataDxfId="11"/>
-    <tableColumn id="2" name="INID" dataDxfId="10"/>
-    <tableColumn id="3" name="Description" dataDxfId="9"/>
-    <tableColumn id="6" name="Progress" dataDxfId="8"/>
-    <tableColumn id="5" name="Notes" dataDxfId="7"/>
+    <tableColumn id="1" name="PID " dataDxfId="12"/>
+    <tableColumn id="2" name="INID" dataDxfId="11"/>
+    <tableColumn id="3" name="Description" dataDxfId="10"/>
+    <tableColumn id="6" name="Progress" dataDxfId="9"/>
+    <tableColumn id="5" name="notes" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:H57" totalsRowShown="0">
-  <autoFilter ref="A1:H57"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I57" totalsRowShown="0">
+  <autoFilter ref="A1:I57"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="PID"/>
     <tableColumn id="2" name="INID"/>
     <tableColumn id="3" name="ACTID"/>
     <tableColumn id="4" name="Description"/>
     <tableColumn id="5" name="Champion"/>
     <tableColumn id="6" name="Team"/>
-    <tableColumn id="7" name="Due Date" dataDxfId="6"/>
-    <tableColumn id="8" name="Progress" dataDxfId="5">
+    <tableColumn id="7" name="Due Date" dataDxfId="7"/>
+    <tableColumn id="8" name="Progress" dataDxfId="1">
       <calculatedColumnFormula>SUM(Tasks!I2:I6) * 10</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="9" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2211,18 +2402,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:J170" totalsRowShown="0">
   <autoFilter ref="A1:J170"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="PID" dataDxfId="4"/>
-    <tableColumn id="2" name="INID" dataDxfId="3"/>
-    <tableColumn id="3" name="ACTID" dataDxfId="2"/>
+    <tableColumn id="1" name="PID" dataDxfId="6"/>
+    <tableColumn id="2" name="INID" dataDxfId="5"/>
+    <tableColumn id="3" name="ACTID" dataDxfId="4"/>
     <tableColumn id="4" name="TASKID"/>
     <tableColumn id="5" name="Description"/>
     <tableColumn id="6" name="Due Date"/>
     <tableColumn id="7" name="Weight"/>
     <tableColumn id="8" name="Complete"/>
-    <tableColumn id="10" name="Measure" dataDxfId="1">
+    <tableColumn id="10" name="Measure" dataDxfId="3">
       <calculatedColumnFormula>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Notes" dataDxfId="0"/>
+    <tableColumn id="12" name="Notes" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2592,10 +2783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD38"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2618,7 +2809,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>302</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
@@ -2636,7 +2827,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F2" s="6"/>
     </row>
@@ -2655,7 +2846,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -2667,14 +2858,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D4" s="13">
         <f>SUM(Actions!H8:H9) / 2</f>
         <v>17.5</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -2693,7 +2884,7 @@
         <v>78.333333333333329</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -2712,7 +2903,7 @@
         <v>57</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F6" s="6"/>
     </row>
@@ -2731,7 +2922,7 @@
         <v>45</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F7" s="6"/>
     </row>
@@ -2750,7 +2941,7 @@
         <v>53.75</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -2769,7 +2960,7 @@
         <v>11.666666666666666</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F9" s="6"/>
     </row>
@@ -2788,7 +2979,7 @@
         <v>100</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F10" s="6"/>
     </row>
@@ -2807,7 +2998,7 @@
         <v>71.25</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F11" s="6"/>
     </row>
@@ -2826,7 +3017,7 @@
         <v>65</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F12" s="6"/>
     </row>
@@ -2845,7 +3036,7 @@
         <v>36</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -2864,7 +3055,7 @@
         <v>35</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F14" s="6"/>
     </row>
@@ -2883,7 +3074,7 @@
         <v>55</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F15" s="6"/>
     </row>
@@ -2902,7 +3093,7 @@
         <v>85</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F16" s="6"/>
     </row>
@@ -2921,7 +3112,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F17" s="6"/>
     </row>
@@ -2940,9 +3131,19 @@
         <v>17.5</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F18" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>303</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:F18">
@@ -2964,10 +3165,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2977,9 +3178,10 @@
     <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="44.21875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3004,8 +3206,11 @@
       <c r="H1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3031,8 +3236,11 @@
         <f>SUM(Tasks!I2:I3) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3058,8 +3266,11 @@
         <f>SUM(Tasks!I4:I5) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3085,8 +3296,11 @@
         <f>SUM(Tasks!I6:I7) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3112,8 +3326,11 @@
         <f>SUM(Tasks!I8:I9) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3139,8 +3356,11 @@
         <f>SUM(Tasks!I10:I12) * 10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3166,8 +3386,11 @@
         <f>SUM(Tasks!I13:I16) * 10</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3190,8 +3413,11 @@
         <f>SUM(Tasks!I17:I19) * 10</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3214,8 +3440,11 @@
         <f>SUM(Tasks!I20:I22) * 10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3241,8 +3470,11 @@
         <f>SUM(Tasks!I23:I25) * 10</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3268,8 +3500,11 @@
         <f>SUM(Tasks!I26:I28) * 10</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3295,8 +3530,9 @@
         <f>SUM(Tasks!I29:I31) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3322,8 +3558,11 @@
         <f>SUM(Tasks!I32:I34) * 10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3346,8 +3585,11 @@
         <f>SUM(Tasks!I35) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3373,8 +3615,11 @@
         <f>SUM(Tasks!I36:I39) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3400,8 +3645,11 @@
         <f>SUM(Tasks!I40:I43) * 10</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3427,8 +3675,11 @@
         <f>SUM(Tasks!I44:I46) * 10</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="15" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -3454,8 +3705,11 @@
         <f>SUM(Tasks!I47:I48) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="15" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3481,8 +3735,11 @@
         <f>SUM(Tasks!I49:I51) * 10</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="15" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3505,8 +3762,11 @@
         <f>SUM(Tasks!I52:I52) * 10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3532,8 +3792,11 @@
         <f>SUM(Tasks!I53:I56) * 10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3559,8 +3822,11 @@
         <f>SUM(Tasks!I57:I59) * 10</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3571,7 +3837,7 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>457</v>
       </c>
       <c r="E23" t="s">
         <v>46</v>
@@ -3586,8 +3852,11 @@
         <f>SUM(Tasks!I60:I63) * 10</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3613,8 +3882,11 @@
         <f>SUM(Tasks!I64:I66) * 10</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="15" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -3640,8 +3912,11 @@
         <f>SUM(Tasks!I67:I72) * 10</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="15" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -3667,8 +3942,11 @@
         <f>SUM(Tasks!I73:I76) * 10</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="15" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3679,7 +3957,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="E27" t="s">
         <v>69</v>
@@ -3694,8 +3972,11 @@
         <f>SUM(Tasks!I77:I80) * 10</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="15" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -3721,8 +4002,11 @@
         <f>SUM(Tasks!I81:I83) * 10</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="15" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3748,8 +4032,11 @@
         <f>SUM(Tasks!I84:I87) * 10</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="15" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3775,8 +4062,11 @@
         <f>SUM(Tasks!I88:I90) * 10</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="15" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -3802,8 +4092,11 @@
         <f>SUM(Tasks!I91:I93) * 10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="15" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -3829,8 +4122,11 @@
         <f>SUM(Tasks!I94:I96) * 10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="15" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3856,8 +4152,11 @@
         <f>SUM(Tasks!I97:I99) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" s="15" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3883,8 +4182,11 @@
         <f>SUM(Tasks!I100:I102) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3901,7 +4203,7 @@
         <v>89</v>
       </c>
       <c r="F35" t="s">
-        <v>93</v>
+        <v>435</v>
       </c>
       <c r="G35" t="s">
         <v>87</v>
@@ -3910,8 +4212,11 @@
         <f>SUM(Tasks!I103:I106) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="15" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -3937,8 +4242,11 @@
         <f>SUM(Tasks!I107:I112) * 10</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="15" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -3961,8 +4269,11 @@
         <f>SUM(Tasks!I113:I113) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="15" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -3985,8 +4296,11 @@
         <f>SUM(Tasks!I114:I116) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="15" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -4009,8 +4323,11 @@
         <f>SUM(Tasks!I117:I120) * 10</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" s="15" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -4036,8 +4353,11 @@
         <f>SUM(Tasks!I121:I122) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="15" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
@@ -4063,8 +4383,11 @@
         <f>SUM(Tasks!I123:I126) * 10</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41" s="15" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -4090,8 +4413,11 @@
         <f>SUM(Tasks!I159:I161) * 10</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="15" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
@@ -4102,7 +4428,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>459</v>
       </c>
       <c r="E43" t="s">
         <v>103</v>
@@ -4117,8 +4443,11 @@
         <f>SUM(Tasks!I160:I162) * 10</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="15" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -4144,8 +4473,11 @@
         <f>SUM(Tasks!I161:I163) * 10</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="15" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3</v>
       </c>
@@ -4168,8 +4500,11 @@
         <f>SUM(Tasks!I162:I164) * 10</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="15" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -4195,8 +4530,11 @@
         <f>SUM(Tasks!I163:I165) * 10</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="15" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
@@ -4222,8 +4560,11 @@
         <f>SUM(Tasks!I164:I166) * 10</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
@@ -4249,8 +4590,11 @@
         <f>SUM(Tasks!I165:I167) * 10</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>3</v>
       </c>
@@ -4273,8 +4617,11 @@
         <f>SUM(Tasks!I166:I168) * 10</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="15" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
@@ -4300,8 +4647,11 @@
         <f>SUM(Tasks!I149:I151) * 10</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50" s="15" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4</v>
       </c>
@@ -4327,8 +4677,11 @@
         <f>SUM(Tasks!I152:I154) * 10</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="15" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4</v>
       </c>
@@ -4354,8 +4707,11 @@
         <f>SUM(Tasks!I155:I157) * 10</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" s="15" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4</v>
       </c>
@@ -4381,8 +4737,11 @@
         <f>SUM(Tasks!I158:I158) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>4</v>
       </c>
@@ -4408,8 +4767,11 @@
         <f>SUM(Tasks!I159:I161) * 10</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54" s="15" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>4</v>
       </c>
@@ -4435,8 +4797,11 @@
         <f>SUM(Tasks!I162:I165) * 10</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="15" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4</v>
       </c>
@@ -4462,8 +4827,11 @@
         <f>SUM(Tasks!I166:I168) * 10</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56" s="15" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4</v>
       </c>
@@ -4488,6 +4856,9 @@
       <c r="H57" s="6">
         <f>SUM(Tasks!I169:I170) * 10</f>
         <v>0</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -4548,7 +4919,7 @@
         <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4581,7 +4952,7 @@
         <v>5</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4614,7 +4985,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4647,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4680,7 +5051,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4713,7 +5084,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4746,7 +5117,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4779,7 +5150,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4812,7 +5183,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4845,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4878,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4911,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4944,7 +5315,7 @@
         <v>2.5</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4977,7 +5348,7 @@
         <v>2.5</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -5072,7 +5443,7 @@
         <v>3.5</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -5105,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5262,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -5295,7 +5666,7 @@
         <v>3.5</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5328,7 +5699,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5361,7 +5732,7 @@
         <v>3.5</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5394,7 +5765,7 @@
         <v>3.5</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5458,7 +5829,7 @@
         <v>3.5</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5491,7 +5862,7 @@
         <v>3.5</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5524,7 +5895,7 @@
         <v>3</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5650,7 +6021,7 @@
         <v>10</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -5683,7 +6054,7 @@
         <v>2.5</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -5716,7 +6087,7 @@
         <v>2.5</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -5749,7 +6120,7 @@
         <v>2.5</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -5782,7 +6153,7 @@
         <v>2.5</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -5815,7 +6186,7 @@
         <v>2.5</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -5848,7 +6219,7 @@
         <v>2.5</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -5881,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -5945,7 +6316,7 @@
         <v>3.5</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -6040,7 +6411,7 @@
         <v>5</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -6073,7 +6444,7 @@
         <v>5</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -6090,7 +6461,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F49" s="10">
         <v>42383</v>
@@ -6106,7 +6477,7 @@
         <v>2.5</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -6123,7 +6494,7 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F50" s="10">
         <v>42383</v>
@@ -6154,7 +6525,7 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F51" s="10">
         <v>42383</v>
@@ -6232,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -6265,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -6298,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -6362,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -6379,7 +6750,7 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F58" s="5">
         <v>42323</v>
@@ -6395,7 +6766,7 @@
         <v>3</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -6428,7 +6799,7 @@
         <v>3.5</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -6461,7 +6832,7 @@
         <v>2.5</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -6494,7 +6865,7 @@
         <v>2.5</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -6527,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -6591,7 +6962,7 @@
         <v>3.5</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -6624,7 +6995,7 @@
         <v>3.5</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -6657,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -6690,7 +7061,7 @@
         <v>1</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -6723,7 +7094,7 @@
         <v>2</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -6756,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -6789,7 +7160,7 @@
         <v>2</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -6884,7 +7255,7 @@
         <v>2.5</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -6979,7 +7350,7 @@
         <v>2.5</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -7012,7 +7383,7 @@
         <v>2.5</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -7045,7 +7416,7 @@
         <v>2.5</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -7078,7 +7449,7 @@
         <v>2.5</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -7111,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -7144,7 +7515,7 @@
         <v>3</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -7177,7 +7548,7 @@
         <v>3.5</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -7210,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -7243,7 +7614,7 @@
         <v>2.5</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -7276,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -7355,7 +7726,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F88" s="5">
         <v>42277</v>
@@ -7371,7 +7742,7 @@
         <v>3.5</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -7559,7 +7930,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -7592,7 +7963,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -7656,7 +8027,7 @@
         <v>3.5</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -7689,7 +8060,7 @@
         <v>3.5</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -7722,7 +8093,7 @@
         <v>3</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -7739,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F100" s="5">
         <v>42246</v>
@@ -7755,7 +8126,7 @@
         <v>3.5</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -7788,7 +8159,7 @@
         <v>3.5</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -7821,7 +8192,7 @@
         <v>3</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -7854,7 +8225,7 @@
         <v>2.5</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -7887,7 +8258,7 @@
         <v>2.5</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -7920,7 +8291,7 @@
         <v>2.5</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -7937,7 +8308,7 @@
         <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F106" s="5">
         <v>42368</v>
@@ -7953,7 +8324,7 @@
         <v>2.5</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -7970,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F107" s="5">
         <v>42036</v>
@@ -7986,7 +8357,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -8019,7 +8390,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -8052,7 +8423,7 @@
         <v>2</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -8085,7 +8456,7 @@
         <v>2</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -8118,7 +8489,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -8182,7 +8553,7 @@
         <v>10</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -8215,7 +8586,7 @@
         <v>3.5</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -8248,7 +8619,7 @@
         <v>3.5</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -8281,7 +8652,7 @@
         <v>3</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -9228,7 +9599,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F147" s="5">
         <v>42338</v>
@@ -9600,7 +9971,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F159" s="5">
         <v>41547</v>

--- a/UploadedFiles/Updated Scorecard Tables.xlsx
+++ b/UploadedFiles/Updated Scorecard Tables.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\MKCoop\UploadedFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ameyers\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5952" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5952" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Perspectives" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="384">
   <si>
     <t>PID</t>
   </si>
@@ -246,9 +246,6 @@
     <t>Devin, Willie, Kent, MKC Wat</t>
   </si>
   <si>
-    <t>Establish youTube video and hold training sessions for basic navigation of existing customer portal</t>
-  </si>
-  <si>
     <t>Brett, Steve, Erik, Darin</t>
   </si>
   <si>
@@ -273,9 +270,6 @@
     <t>Devin, Kent</t>
   </si>
   <si>
-    <t>Invite 4 growers from targeted geography to Emergin Producers Program with follow-up discussions afterward</t>
-  </si>
-  <si>
     <t>Nichole, Devin, Kent</t>
   </si>
   <si>
@@ -309,9 +303,6 @@
     <t>Utilize other communication methods to carry message (employee newsletter, employee portal, meeting notes, monthly employee meetings)</t>
   </si>
   <si>
-    <t>Kerry, Matt, Location Managers</t>
-  </si>
-  <si>
     <t>Jeff</t>
   </si>
   <si>
@@ -351,9 +342,6 @@
     <t>Develop hard targets for development and communication using the engagement survey results</t>
   </si>
   <si>
-    <t>Investigate opportunites to improve peak-time workforce needs</t>
-  </si>
-  <si>
     <t>Investigate opportunities to measure employee quality of life</t>
   </si>
   <si>
@@ -564,12 +552,6 @@
     <t>Have energy and CP contracts complete</t>
   </si>
   <si>
-    <t>Lawyer assessments and approvals for all contracts</t>
-  </si>
-  <si>
-    <t>Formal training for key employees on all contracts</t>
-  </si>
-  <si>
     <t>Determine source and curriculum for training</t>
   </si>
   <si>
@@ -621,9 +603,6 @@
     <t>Evaluate new website and update as necessary</t>
   </si>
   <si>
-    <t>Obtain UAV licensing</t>
-  </si>
-  <si>
     <t>Make a list of services offered or intended to offer</t>
   </si>
   <si>
@@ -660,9 +639,6 @@
     <t>Add prospective independent retailers to merger discussion spreadsheet</t>
   </si>
   <si>
-    <t>Create location specific financial reports (or use current ones)</t>
-  </si>
-  <si>
     <t>Set meeting to discuss critical expense items to include on training checklist</t>
   </si>
   <si>
@@ -693,15 +669,9 @@
     <t>Arrange meeting with Danny to review bylaws</t>
   </si>
   <si>
-    <t>Arrange meeting with Governance Committee to review bylaws</t>
-  </si>
-  <si>
     <t>Prepare report for BOD meeting</t>
   </si>
   <si>
-    <t>Locate talking points developed for Puerto Rico meeting</t>
-  </si>
-  <si>
     <t>Create talking points for employees to use moving forward</t>
   </si>
   <si>
@@ -720,9 +690,6 @@
     <t>Discuss forming a committee with BOD</t>
   </si>
   <si>
-    <t>Consider adding the responsibility to an existing BOD committee or develop all members</t>
-  </si>
-  <si>
     <t>Make a decision</t>
   </si>
   <si>
@@ -879,9 +846,6 @@
     <t>Determine new courses of action</t>
   </si>
   <si>
-    <t>Announce new offerings on wellness blog</t>
-  </si>
-  <si>
     <t>Prepare proforma &amp; feasability report for outright ownership</t>
   </si>
   <si>
@@ -936,18 +900,18 @@
     <t>Post to Board Portal for review</t>
   </si>
   <si>
+    <t>…………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………………….</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
     <t>Redesigned website</t>
   </si>
   <si>
-    <t>Redesigned customer portal</t>
-  </si>
-  <si>
-    <t>Redesigned careers</t>
-  </si>
-  <si>
     <t>Define measures of engagement</t>
   </si>
   <si>
@@ -969,214 +933,10 @@
     <t>Hire a business Intelligence specialist</t>
   </si>
   <si>
-    <t>Spreadsheet is created and maintained by Darin.</t>
-  </si>
-  <si>
-    <t>Dave C. keeps target list.</t>
-  </si>
-  <si>
-    <t>Alerts are set to Amy for every 6 months to update targets with Dave C. and Ted.</t>
-  </si>
-  <si>
-    <t>Alerts to Amy are set for every other Monday to obtain updates from Darin.</t>
-  </si>
-  <si>
-    <t>Jon Brown completed the 2015 updates in December with the assistance of Chris Roberts.</t>
-  </si>
-  <si>
-    <t>Alerts to Amy are set for every other Month to have VPs revisit after staff to keep current.</t>
-  </si>
-  <si>
-    <t>Suggested retailers have been added to the spreadsheet although no progress is logged.</t>
-  </si>
-  <si>
-    <t>Dashboard is still being built out.  Review meeting is scheduled for wk of Jan 18.</t>
-  </si>
-  <si>
-    <t>Margin/Expense Management Committee is created.</t>
-  </si>
-  <si>
-    <t>Alerts to Amy for every quarter to visit with Dave C. about voting membership.</t>
-  </si>
-  <si>
-    <t>Will wait for instruction after strategic planning on Jan. 26-28.</t>
-  </si>
-  <si>
-    <t>Cannot be located.  Create new list.</t>
-  </si>
-  <si>
-    <t>Talking points are highlighted in the "Inititiative in Review" for Telling the MKC Story.</t>
-  </si>
-  <si>
-    <t>Complete.  Development sessions are on the books for February and March of 2016.</t>
-  </si>
-  <si>
-    <t>Complete.  CHS has opportunities and Chris Fischer is booked for March.</t>
-  </si>
-  <si>
-    <t>Dave confirms complete.</t>
-  </si>
-  <si>
-    <t>Training will include access to the dashboard and how to interpret the data.</t>
-  </si>
-  <si>
-    <t>Still planning on formal roll out in February.  Should consider monthly variance reporting.</t>
-  </si>
-  <si>
-    <t>List is made &amp; prioritizing is in progress.  Buypoint is still in feasibility phase.</t>
-  </si>
-  <si>
-    <t>Hired 2.  Next steps include MAA action items &amp; timelining them.  Consider 3-3MIL accounts as discussed in VIP.</t>
-  </si>
-  <si>
-    <t>Postcards were sent.</t>
-  </si>
-  <si>
-    <t>List was completed.</t>
-  </si>
-  <si>
-    <t>Tim met with each Field Marketer.</t>
-  </si>
-  <si>
-    <t>123 loans captured exceeding the 75 goal.  This is a 46% increase over LY.</t>
-  </si>
-  <si>
-    <t>Signed.</t>
-  </si>
-  <si>
-    <t>List compiled by obtaining 3-6 accounts from each Field Marketer.  60 identified.</t>
-  </si>
-  <si>
     <t>Complete.</t>
   </si>
   <si>
-    <t>Timeline received and launch milestone fullfilled.</t>
-  </si>
-  <si>
-    <t>60% share of wallet, 20% service surveys, 20% meeting attendance.</t>
-  </si>
-  <si>
-    <t>Meeting held and modules defined.</t>
-  </si>
-  <si>
-    <t>Script is complete.</t>
-  </si>
-  <si>
-    <t>Will need to revisit once new site is launched.</t>
-  </si>
-  <si>
-    <t>Decisions have been made.</t>
-  </si>
-  <si>
-    <t>Seed is done.  Fertilizer is not.</t>
-  </si>
-  <si>
-    <t>Chemical is done.  Check on Energy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Will be administered as a topic in the FLM+ curriculum.  Verify in syllabus.  </t>
-  </si>
-  <si>
-    <t>Bruce Tulgan scheduled in February.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 days defined for agronomy.  Other departments will determine their own.  </t>
-  </si>
-  <si>
-    <t>Testing is being completed now by Devin and Kent.</t>
-  </si>
-  <si>
-    <t>Complete.  Reviewed by Dave C. in November 2015 Monthly Manager Meeting. Consider Customer Testimonal Videos next.</t>
-  </si>
-  <si>
-    <t>CRM Power Survey Plus functionality not tested yet. If not CRM then Field Marketers will collect data manually.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Questions are being revised from open ended to quantifiable.  </t>
-  </si>
-  <si>
-    <t>Goal is to have top 10 done by April 1, 2016.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investigation is complete.  Will use CRM Power Survey Plus but still need to test funtionality on employee group first.  </t>
-  </si>
-  <si>
-    <t>Meeting held and survey types defined.  Schedule another meeting to reconfirm types and questions for each to pass forward to Dustin.</t>
-  </si>
-  <si>
-    <t>Interns completing transfers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All transfers are complete.  SOP template is now used for all new processes.  Committee will internally audit any processes w/o an SOP. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back to discovery phase.  </t>
-  </si>
-  <si>
-    <t>Willie is calling on each Sumner Co. invitee personally.  Will set up meeting afterward.</t>
-  </si>
-  <si>
-    <t>Conference call scheduled for 1/19.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farmers Bureau Network software may not be best course of action.  </t>
-  </si>
-  <si>
-    <t>Power Survey not ready to launch.  Used written survey and instant click survey methods.</t>
-  </si>
-  <si>
-    <t>Maybe next year.</t>
-  </si>
-  <si>
-    <t>Completed in Phase 1.</t>
-  </si>
-  <si>
-    <t>Ross confirms in progress.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There is a new sales incentive to to drive precision ag services.  Find out what marketing channels are being used and what collateral is needed.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete.  Tuesday March 15, 2016. </t>
-  </si>
-  <si>
-    <t>Complete.  December 21-22, 2015.</t>
-  </si>
-  <si>
-    <t>Complete.  2016 Calendar complete.  Template complete.</t>
-  </si>
-  <si>
-    <t>Complete and offically rolled out in October 2015.</t>
-  </si>
-  <si>
-    <t>Complete and part of Amy's monthly tasks.</t>
-  </si>
-  <si>
-    <t>Complete and part of Amy's monthly tasks.  This includes Sales/Ops meetings as well.</t>
-  </si>
-  <si>
-    <t>Complete.  Champions and Executive Team review and approve each initiative before monthly manager meeting.</t>
-  </si>
-  <si>
-    <t>Complete and part of Safety Committee's responsibilies.</t>
-  </si>
-  <si>
-    <t>Complete and rolled out in Sept 2015.</t>
-  </si>
-  <si>
-    <t>Template currently in review.</t>
-  </si>
-  <si>
-    <t>Created by MKC Way Committee each month.</t>
-  </si>
-  <si>
-    <t>Complete and administered by MKC Way Committee Members.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete. </t>
+    <t>notes</t>
   </si>
   <si>
     <r>
@@ -1759,6 +1519,195 @@
       <t xml:space="preserve">Grain quality grades have been determined.  Waiting on financial dashboards for locations to examine results and apply to new incentive program.  </t>
     </r>
   </si>
+  <si>
+    <t>Have 25 discussions in progress.  Will develop strategies to communicate message to Directors.  Will organize meetings with large, strategic producers in Sumner County region.</t>
+  </si>
+  <si>
+    <t>A list is active and updated every 6 months to capture additions and changes.  They are prioritized by urgency and grouped by large and small projects.</t>
+  </si>
+  <si>
+    <t>Several have been identified.</t>
+  </si>
+  <si>
+    <t>A list is started with emphasis on fertilizer/grain retailer in eastern KS.</t>
+  </si>
+  <si>
+    <t>Financial dashboards are in development.  Monthly ratios are currently being shared with key employees to increase exposure to location specific financial data.</t>
+  </si>
+  <si>
+    <t>Committee is meeting on a regular basis.  They are identifying quality, cost saving projects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposal has been brought to the Board examining business over the past 2 years. </t>
+  </si>
+  <si>
+    <t>Next steps for preparedness are in progress.  Legal counsel has provided guidance that this will be a Director Policy change.</t>
+  </si>
+  <si>
+    <t>Talking points are created and saved in the M-drive under Strategic Planning.  Sumner County points are drafted.</t>
+  </si>
+  <si>
+    <t>BOD development sessions are scheduled annually to keep momentum in continuing education.</t>
+  </si>
+  <si>
+    <t>Expanded beyond Field Marketers to involve all agronomy hubs.  Incentives are currently being developed and on pace for September.</t>
+  </si>
+  <si>
+    <t>Added 123 new loans, 46% increase over LY.  Increased loan commitments 13 MIL. Utilization is 30% measured in calendar year.  Multiple marketing campaigns tied to CFA.</t>
+  </si>
+  <si>
+    <t>Currently testing the CRM module and will roll out and train by FEB.</t>
+  </si>
+  <si>
+    <t>60 accounts have been identified and assigned to Field Marketers, MAAs, and Grain Marketers.</t>
+  </si>
+  <si>
+    <t>Complete.  New website is launched fulfilling phase 1.</t>
+  </si>
+  <si>
+    <t>Researched software options with LOL that will integrate with new MKC portal.</t>
+  </si>
+  <si>
+    <t>Universal questions for the review are complete.  Survey will launch through CRM.  Top 10 accounts for each Field Marketer time-lined to complete by APR 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRM will launch surveys.  Calendar is created for surveys to conduct throughout the year.  Questions are being finalized.  </t>
+  </si>
+  <si>
+    <t>Phase 1 completion of the website is driving timeline for video.  Scripts are ready.  Field Staff will be trained and Champions identified for each location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete.  The Committee has completed organization by department in the M-drive and SOP is active.  Champions are identified for each department to maintain consistency and updates.  Committee will investigate options for distribution. </t>
+  </si>
+  <si>
+    <t>Changes are made to seed and CPP contracts.  Training is complete.  Fertilizer will not change at this time.  Energy is in progress and pending changes based on access to sales contract module.</t>
+  </si>
+  <si>
+    <t>3rd annual EPP successful.  FLM+ sales training will include generational selling topic in curriculum starting in FEB. Guest speaker, Bruce Tulgan is scheduled for sessions in FEB specifically covering differences in generations.</t>
+  </si>
+  <si>
+    <t>6 growers in attendance.  Follow up are in progress.</t>
+  </si>
+  <si>
+    <t>Continuing to review software partners to provide benchmarking and business alignment with MKC.</t>
+  </si>
+  <si>
+    <t>All of the EPP invitees are tracked in CRM.  Exploring whether CRM will build the reports or if MKC will build internally.</t>
+  </si>
+  <si>
+    <t>New website content is updated with enhancements to come.</t>
+  </si>
+  <si>
+    <t>Awaiting section 333 commercial exemption license.  Services will launch thereafter.</t>
+  </si>
+  <si>
+    <t>3 are complete and 5 more are scheduled to complete by FEB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategic Recap Meeting is scheduled in March and a new process of consistently reviewing an Initiative in Review by each Lead Champion in Monthly Manager's Meetings has been adopted.  </t>
+  </si>
+  <si>
+    <t>Complete.  New template is being used in each location's Monthly Team Meetings and contains consistent messaging for the Initiative in Review.</t>
+  </si>
+  <si>
+    <t>Nichole, Matt, Location Managers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are leveraging the reach of the employee newsletter and incorporating an Initiative article each month.  Initiatives in Review are housed in the M-drive and are distributed with the Monthly Team Meeting Agendas.  </t>
+  </si>
+  <si>
+    <t>Daily safety meetings are in progress.  There is a safety article in each employee newsletter.  There is a new accident investigation process and annual Nationwide training sessions and agronomy safety sessions are scheduled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilize monthly customer service topics to review in each location's team meetings.  Team meeting review of Courtesy is scheduled 3x year. </t>
+  </si>
+  <si>
+    <t>Redesigned image audit template and SOP.  Image audits are done 2X year in March and September.</t>
+  </si>
+  <si>
+    <t>Celebrated in Monthly Manager Meetings.  Created a sub committee of MKC alumni to ensure standards for incentives are followed.</t>
+  </si>
+  <si>
+    <t>Complete.  Year 2 analysis is underway.  Compared to LOL peers, we are in alignment with industry standards.</t>
+  </si>
+  <si>
+    <t>Initial incentive measurements have been established.  Company standards are in place with location specific standards to follow.</t>
+  </si>
+  <si>
+    <t>ES will be completed EOM February.  Data analysis will follow and targets will be developed from those results.</t>
+  </si>
+  <si>
+    <t>Newspaper ads are current.  Ads will be posted in Bluestem retirement community newsletters.</t>
+  </si>
+  <si>
+    <t>Adding 2 new questions to ES specifically to measure quality of life.  Results may indicate a better method to match job descriptions to employee's desired measurements.</t>
+  </si>
+  <si>
+    <t>Complete.  Requires additional feedback from Managers and will organize roll out to meet timeline.</t>
+  </si>
+  <si>
+    <t>metrics are defined.  Panel review will be scheduled to review current list of HPEs.</t>
+  </si>
+  <si>
+    <t>PDP form is approved.  IDPs for HPEs to be reviewed in MAR/APR.</t>
+  </si>
+  <si>
+    <t>Checklist is developed and will connect to IDPs.</t>
+  </si>
+  <si>
+    <t>Complete.  Have investigated provider options.  With current benefit changes, we will manage our own wellness plan while utilizing and current provider tools.</t>
+  </si>
+  <si>
+    <t>Razor tracking almost 100% installed and being utilized.  Data is being collected.  Software changes will enhance functionality.  SOP pending final draft.  Currently exploring new uses for razor tracking.</t>
+  </si>
+  <si>
+    <t>Purchased dashboard/analytic software platform.  Identified key dashboards for MKC and TMA and broke them down in 2 phases for completion.</t>
+  </si>
+  <si>
+    <t>Complete.  Grain quality scorecards are incorporated into new incentive program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenarios have been identified. </t>
+  </si>
+  <si>
+    <t>More to come.</t>
+  </si>
+  <si>
+    <t>Complete.  Met with LOL in several planning sessions to determine needs and put together a phase approach to the portal project.</t>
+  </si>
+  <si>
+    <t>Establish YouTube video and hold training sessions for basic navigation of existing customer portal</t>
+  </si>
+  <si>
+    <t>Invite 4 growers from targeted geography to Emerging Producers Program with follow-up discussions afterward</t>
+  </si>
+  <si>
+    <t>Investigate opportunities to improve peak-time workforce needs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assistant Field Marketer and Assistant Agronomy Ops programs very successful.  30%+ of interns are permanently hired after participating in internship program.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performa is developed and TMA is reviewing it for ownership.  Opportunities for improvement include back hauling fertilizer.  Utilizing MKC fleet and drivers to haul TMA commodities when available.  Additional planning sessions are being scheduled. </t>
+  </si>
+  <si>
+    <t>Create location specific financial reports</t>
+  </si>
+  <si>
+    <t>Arrange meeting with legal counsel to review bylaws</t>
+  </si>
+  <si>
+    <t>Consider utilizing executive team</t>
+  </si>
+  <si>
+    <t>Lawyer assessments and approvals for all contracts (energy pending)</t>
+  </si>
+  <si>
+    <t>Formal training for key employees on all contracts (energy pending)</t>
+  </si>
+  <si>
+    <t>Submit for UAV licensing</t>
+  </si>
 </sst>
 </file>
 
@@ -1822,7 +1771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1878,7 +1827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1889,7 +1838,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1902,14 +1850,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2019,6 +1969,10 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -2182,16 +2136,16 @@
     <tableColumn id="2" name="INID" dataDxfId="10"/>
     <tableColumn id="3" name="Description" dataDxfId="9"/>
     <tableColumn id="6" name="Progress" dataDxfId="8"/>
-    <tableColumn id="5" name="Notes" dataDxfId="7"/>
+    <tableColumn id="5" name="notes" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:H57" totalsRowShown="0">
-  <autoFilter ref="A1:H57"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I57" totalsRowShown="0">
+  <autoFilter ref="A1:I57"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="PID"/>
     <tableColumn id="2" name="INID"/>
     <tableColumn id="3" name="ACTID"/>
@@ -2202,27 +2156,27 @@
     <tableColumn id="8" name="Progress" dataDxfId="5">
       <calculatedColumnFormula>SUM(Tasks!I2:I6) * 10</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="9" name="Notes" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:J170" totalsRowShown="0">
-  <autoFilter ref="A1:J170"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="PID" dataDxfId="4"/>
-    <tableColumn id="2" name="INID" dataDxfId="3"/>
-    <tableColumn id="3" name="ACTID" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:I170" totalsRowShown="0">
+  <autoFilter ref="A1:I170"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="PID" dataDxfId="3"/>
+    <tableColumn id="2" name="INID" dataDxfId="2"/>
+    <tableColumn id="3" name="ACTID" dataDxfId="1"/>
     <tableColumn id="4" name="TASKID"/>
     <tableColumn id="5" name="Description"/>
     <tableColumn id="6" name="Due Date"/>
     <tableColumn id="7" name="Weight"/>
     <tableColumn id="8" name="Complete"/>
-    <tableColumn id="10" name="Measure" dataDxfId="1">
+    <tableColumn id="10" name="Measure" dataDxfId="0">
       <calculatedColumnFormula>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2522,7 +2476,7 @@
       </c>
       <c r="C2" s="6">
         <f>SUM(Initiatives!D2:D5) / 4</f>
-        <v>55.208333333333329</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2534,7 +2488,7 @@
       </c>
       <c r="C3" s="6">
         <f>SUM(Initiatives!D6:D9) / 4</f>
-        <v>41.854166666666664</v>
+        <v>74.916666666666671</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2546,7 +2500,7 @@
       </c>
       <c r="C4" s="6">
         <f>SUM(Initiatives!D10:D14) / 5</f>
-        <v>61.45</v>
+        <v>81.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2558,7 +2512,7 @@
       </c>
       <c r="C5" s="6">
         <f>SUM(Initiatives!D15:D18) / 4</f>
-        <v>51.875</v>
+        <v>59.375</v>
       </c>
     </row>
   </sheetData>
@@ -2592,16 +2546,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD38"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="63.6640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2617,332 +2571,342 @@
       <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <f>SUM(Actions!H2:H5) / 4</f>
         <v>100</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>383</v>
+      <c r="E2" s="13" t="s">
+        <v>303</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12">
-        <v>2</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <f>SUM(Actions!H6:H7) / 2</f>
         <v>25</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>390</v>
+      <c r="E3" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12">
-        <v>3</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" s="12">
         <f>SUM(Actions!H8:H9) / 2</f>
-        <v>17.5</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>392</v>
+        <v>85</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>1</v>
-      </c>
-      <c r="B5" s="12">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <f>SUM(Actions!H10:H12) / 3</f>
-        <v>78.333333333333329</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>393</v>
+        <v>90</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>313</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>2</v>
-      </c>
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <f>SUM(Actions!H13:H17) / 5</f>
-        <v>57</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>394</v>
+        <v>63</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>314</v>
       </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>2</v>
-      </c>
-      <c r="B7" s="12">
-        <v>2</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="11">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <f>SUM(Actions!H18:H25) / 8</f>
-        <v>45</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>395</v>
+        <v>88.75</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>315</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>2</v>
-      </c>
-      <c r="B8" s="12">
-        <v>3</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="A8" s="11">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <f>SUM(Actions!H26:H29) / 4</f>
-        <v>53.75</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>384</v>
+        <v>81.25</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>304</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>2</v>
-      </c>
-      <c r="B9" s="12">
-        <v>4</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="11">
+        <v>2</v>
+      </c>
+      <c r="B9" s="11">
+        <v>4</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <f>SUM(Actions!H30:H32) / 3</f>
-        <v>11.666666666666666</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>385</v>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>305</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>3</v>
-      </c>
-      <c r="B10" s="12">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="11">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <f>SUM(Actions!H33:H35) / 3</f>
         <v>100</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>396</v>
+      <c r="E10" s="13" t="s">
+        <v>316</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>3</v>
-      </c>
-      <c r="B11" s="12">
-        <v>2</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="A11" s="11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <f>SUM(Actions!H36:H39) / 4</f>
-        <v>71.25</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>397</v>
+        <v>95</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>317</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>3</v>
-      </c>
-      <c r="B12" s="12">
-        <v>3</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="11">
+        <v>3</v>
+      </c>
+      <c r="B12" s="11">
+        <v>3</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <f>SUM(Actions!H40:H44) / 5</f>
-        <v>65</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>398</v>
+        <v>75</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>318</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>3</v>
-      </c>
-      <c r="B13" s="12">
-        <v>4</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="A13" s="11">
+        <v>3</v>
+      </c>
+      <c r="B13" s="11">
+        <v>4</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <f>SUM(Actions!H45:H49) / 5</f>
         <v>36</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>386</v>
+      <c r="E13" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>3</v>
-      </c>
-      <c r="B14" s="12">
+      <c r="A14" s="11">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11">
         <v>5</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <f>SUM(Actions!H50)</f>
-        <v>35</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>387</v>
+        <v>100</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>307</v>
       </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>4</v>
-      </c>
-      <c r="B15" s="12">
-        <v>1</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="A15" s="11">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <f>SUM(Actions!H51:H52) / 2</f>
-        <v>55</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>399</v>
+        <v>85</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>319</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>4</v>
-      </c>
-      <c r="B16" s="12">
-        <v>2</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="A16" s="11">
+        <v>4</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <f>SUM(Actions!H53:H54) / 2</f>
         <v>85</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>388</v>
+      <c r="E16" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
-        <v>4</v>
-      </c>
-      <c r="B17" s="12">
-        <v>3</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="A17" s="11">
+        <v>4</v>
+      </c>
+      <c r="B17" s="11">
+        <v>3</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <f>SUM(Actions!H55)</f>
         <v>50</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>400</v>
+      <c r="E17" s="13" t="s">
+        <v>320</v>
       </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>4</v>
-      </c>
-      <c r="B18" s="12">
-        <v>4</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="A18" s="11">
+        <v>4</v>
+      </c>
+      <c r="B18" s="11">
+        <v>4</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <f>SUM(Actions!H56:H57)/2</f>
         <v>17.5</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>389</v>
+      <c r="E18" s="13" t="s">
+        <v>309</v>
       </c>
       <c r="F18" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>291</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:F18">
@@ -2964,10 +2928,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2977,9 +2941,10 @@
     <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="44.21875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3004,8 +2969,11 @@
       <c r="H1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3025,14 +2993,17 @@
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H2" s="6">
         <f>SUM(Tasks!I2:I3) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3052,14 +3023,17 @@
         <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H3" s="6">
         <f>SUM(Tasks!I4:I5) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3079,14 +3053,17 @@
         <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H4" s="6">
         <f>SUM(Tasks!I6:I7) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3106,14 +3083,17 @@
         <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H5" s="6">
         <f>SUM(Tasks!I8:I9) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3139,8 +3119,11 @@
         <f>SUM(Tasks!I10:I12) * 10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3166,8 +3149,11 @@
         <f>SUM(Tasks!I13:I16) * 10</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3188,10 +3174,13 @@
       </c>
       <c r="H8" s="6">
         <f>SUM(Tasks!I17:I19) * 10</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3212,10 +3201,13 @@
       </c>
       <c r="H9" s="6">
         <f>SUM(Tasks!I20:I22) * 10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3239,10 +3231,13 @@
       </c>
       <c r="H10" s="6">
         <f>SUM(Tasks!I23:I25) * 10</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3268,8 +3263,11 @@
         <f>SUM(Tasks!I26:I28) * 10</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="14" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3295,8 +3293,9 @@
         <f>SUM(Tasks!I29:I31) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3320,10 +3319,13 @@
       </c>
       <c r="H13" s="6">
         <f>SUM(Tasks!I32:I34) * 10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3340,14 +3342,17 @@
         <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H14" s="6">
         <f>SUM(Tasks!I35) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3373,8 +3378,11 @@
         <f>SUM(Tasks!I36:I39) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="14" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3400,8 +3408,11 @@
         <f>SUM(Tasks!I40:I43) * 10</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3427,8 +3438,11 @@
         <f>SUM(Tasks!I44:I46) * 10</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -3454,8 +3468,11 @@
         <f>SUM(Tasks!I47:I48) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="14" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3479,10 +3496,13 @@
       </c>
       <c r="H19" s="6">
         <f>SUM(Tasks!I49:I51) * 10</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3503,10 +3523,13 @@
       </c>
       <c r="H20" s="6">
         <f>SUM(Tasks!I52:I52) * 10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3530,10 +3553,13 @@
       </c>
       <c r="H21" s="6">
         <f>SUM(Tasks!I53:I56) * 10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3544,7 +3570,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E22" t="s">
         <v>46</v>
@@ -3557,10 +3583,13 @@
       </c>
       <c r="H22" s="6">
         <f>SUM(Tasks!I57:I59) * 10</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3571,23 +3600,26 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>373</v>
       </c>
       <c r="E23" t="s">
         <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G23" s="5">
         <v>42309</v>
       </c>
       <c r="H23" s="6">
         <f>SUM(Tasks!I60:I63) * 10</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3598,23 +3630,26 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
         <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G24" s="5">
         <v>42370</v>
       </c>
       <c r="H24" s="6">
         <f>SUM(Tasks!I64:I66) * 10</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -3625,23 +3660,26 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
         <v>76</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>77</v>
-      </c>
-      <c r="F25" t="s">
-        <v>78</v>
       </c>
       <c r="G25" s="5">
         <v>42292</v>
       </c>
       <c r="H25" s="6">
         <f>SUM(Tasks!I67:I72) * 10</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -3652,23 +3690,26 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
         <v>69</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H26" s="6">
         <f>SUM(Tasks!I73:I76) * 10</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3679,23 +3720,26 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="E27" t="s">
         <v>69</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H27" s="6">
         <f>SUM(Tasks!I77:I80) * 10</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -3706,23 +3750,26 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
         <v>69</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G28" s="5">
         <v>42339</v>
       </c>
       <c r="H28" s="6">
         <f>SUM(Tasks!I81:I83) * 10</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3733,23 +3780,26 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
         <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G29" s="5">
         <v>42491</v>
       </c>
       <c r="H29" s="6">
         <f>SUM(Tasks!I84:I87) * 10</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3760,23 +3810,26 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G30" s="5">
         <v>42430</v>
       </c>
       <c r="H30" s="6">
         <f>SUM(Tasks!I88:I90) * 10</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -3787,23 +3840,26 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G31" s="5">
         <v>42614</v>
       </c>
       <c r="H31" s="6">
         <f>SUM(Tasks!I91:I93) * 10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -3814,23 +3870,26 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E32" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F32" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G32" s="5">
         <v>42430</v>
       </c>
       <c r="H32" s="6">
         <f>SUM(Tasks!I94:I96) * 10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3841,23 +3900,26 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" t="s">
         <v>88</v>
       </c>
-      <c r="E33" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" t="s">
-        <v>90</v>
-      </c>
       <c r="G33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H33" s="6">
         <f>SUM(Tasks!I97:I99) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3868,23 +3930,26 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s">
         <v>47</v>
       </c>
       <c r="G34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H34" s="6">
         <f>SUM(Tasks!I100:I102) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3895,23 +3960,26 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s">
-        <v>93</v>
+        <v>351</v>
       </c>
       <c r="G35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H35" s="6">
         <f>SUM(Tasks!I103:I106) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -3922,23 +3990,26 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H36" s="6">
         <f>SUM(Tasks!I107:I112) * 10</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -3949,10 +4020,10 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G37" s="5">
         <v>42401</v>
@@ -3961,8 +4032,11 @@
         <f>SUM(Tasks!I113:I113) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -3973,10 +4047,10 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G38" s="5">
         <v>42401</v>
@@ -3985,8 +4059,11 @@
         <f>SUM(Tasks!I114:I116) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -3997,20 +4074,23 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G39" s="5">
         <v>42401</v>
       </c>
       <c r="H39" s="6">
         <f>SUM(Tasks!I117:I120) * 10</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -4021,13 +4101,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G40" s="5">
         <v>42248</v>
@@ -4036,8 +4116,11 @@
         <f>SUM(Tasks!I121:I122) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
@@ -4048,23 +4131,26 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G41" s="5">
         <v>42401</v>
       </c>
       <c r="H41" s="6">
         <f>SUM(Tasks!I123:I126) * 10</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -4075,13 +4161,13 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F42" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G42" s="5">
         <v>42401</v>
@@ -4090,8 +4176,11 @@
         <f>SUM(Tasks!I159:I161) * 10</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
@@ -4102,13 +4191,13 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>375</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F43" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G43" s="5">
         <v>42401</v>
@@ -4117,8 +4206,11 @@
         <f>SUM(Tasks!I160:I162) * 10</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -4129,13 +4221,13 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G44" s="5">
         <v>42401</v>
@@ -4144,8 +4236,11 @@
         <f>SUM(Tasks!I161:I163) * 10</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3</v>
       </c>
@@ -4156,10 +4251,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G45" s="5">
         <v>42401</v>
@@ -4168,8 +4263,11 @@
         <f>SUM(Tasks!I162:I164) * 10</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -4180,13 +4278,13 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F46" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G46" s="5">
         <v>42248</v>
@@ -4195,8 +4293,11 @@
         <f>SUM(Tasks!I163:I165) * 10</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
@@ -4207,13 +4308,13 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F47" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G47" s="5">
         <v>42401</v>
@@ -4222,8 +4323,11 @@
         <f>SUM(Tasks!I164:I166) * 10</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
@@ -4234,13 +4338,13 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G48" s="5">
         <v>42401</v>
@@ -4249,8 +4353,11 @@
         <f>SUM(Tasks!I165:I167) * 10</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>3</v>
       </c>
@@ -4261,10 +4368,10 @@
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G49" s="5">
         <v>42401</v>
@@ -4273,8 +4380,11 @@
         <f>SUM(Tasks!I166:I168) * 10</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
@@ -4285,23 +4395,26 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E50" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F50" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G50" s="5">
         <v>42491</v>
       </c>
       <c r="H50" s="6">
         <f>SUM(Tasks!I149:I151) * 10</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4</v>
       </c>
@@ -4312,23 +4425,26 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F51" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H51" s="6">
         <f>SUM(Tasks!I152:I154) * 10</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4</v>
       </c>
@@ -4339,23 +4455,26 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E52" t="s">
+        <v>116</v>
+      </c>
+      <c r="F52" t="s">
+        <v>119</v>
+      </c>
+      <c r="G52" t="s">
         <v>120</v>
-      </c>
-      <c r="F52" t="s">
-        <v>123</v>
-      </c>
-      <c r="G52" t="s">
-        <v>124</v>
       </c>
       <c r="H52" s="6">
         <f>SUM(Tasks!I155:I157) * 10</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4</v>
       </c>
@@ -4366,7 +4485,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E53" t="s">
         <v>63</v>
@@ -4381,8 +4500,11 @@
         <f>SUM(Tasks!I158:I158) * 10</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>4</v>
       </c>
@@ -4393,23 +4515,26 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E54" t="s">
         <v>63</v>
       </c>
       <c r="F54" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H54" s="6">
         <f>SUM(Tasks!I159:I161) * 10</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54" s="14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>4</v>
       </c>
@@ -4420,13 +4545,13 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F55" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G55" s="5">
         <v>42401</v>
@@ -4435,8 +4560,11 @@
         <f>SUM(Tasks!I162:I165) * 10</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="14" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4</v>
       </c>
@@ -4447,13 +4575,13 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E56" t="s">
         <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G56" s="5">
         <v>42401</v>
@@ -4462,8 +4590,11 @@
         <f>SUM(Tasks!I166:I168) * 10</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56" s="14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4</v>
       </c>
@@ -4474,13 +4605,13 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E57" t="s">
         <v>35</v>
       </c>
       <c r="F57" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G57" s="5">
         <v>42401</v>
@@ -4488,6 +4619,9 @@
       <c r="H57" s="6">
         <f>SUM(Tasks!I169:I170) * 10</f>
         <v>0</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -4501,10 +4635,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J170"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H170" sqref="H170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4516,10 +4650,9 @@
     <col min="7" max="7" width="13.88671875" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" customWidth="1"/>
-    <col min="10" max="10" width="127.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4530,7 +4663,7 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -4539,19 +4672,16 @@
         <v>65</v>
       </c>
       <c r="G1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" t="s">
         <v>134</v>
       </c>
-      <c r="H1" t="s">
-        <v>138</v>
-      </c>
       <c r="I1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4565,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F2" s="5">
         <v>42282</v>
@@ -4580,11 +4710,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>5</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -4598,7 +4725,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F3" s="5">
         <v>42308</v>
@@ -4613,11 +4740,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>5</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -4631,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F4" s="5">
         <v>42319</v>
@@ -4646,11 +4770,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>5</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -4664,7 +4785,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F5" s="5">
         <v>42353</v>
@@ -4679,11 +4800,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>5</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4697,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F6" s="5">
         <v>42241</v>
@@ -4712,11 +4830,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>5</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -4730,7 +4845,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F7" s="5">
         <v>42353</v>
@@ -4745,11 +4860,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>5</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -4763,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F8" s="5">
         <v>42285</v>
@@ -4778,11 +4890,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>5</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -4796,7 +4905,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F9" s="5">
         <v>42353</v>
@@ -4811,11 +4920,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>5</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -4829,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>210</v>
+        <v>378</v>
       </c>
       <c r="F10" s="5">
         <v>42352</v>
@@ -4844,11 +4950,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>1</v>
       </c>
@@ -4862,7 +4965,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F11" s="5">
         <v>42389</v>
@@ -4877,11 +4980,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>1</v>
       </c>
@@ -4895,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F12" s="5">
         <v>42424</v>
@@ -4910,11 +5010,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>1</v>
       </c>
@@ -4928,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F13" s="5">
         <v>42166</v>
@@ -4943,11 +5040,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -4961,7 +5055,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F14" s="5">
         <v>42309</v>
@@ -4976,11 +5070,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>1</v>
       </c>
@@ -4994,7 +5085,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F15" s="5">
         <v>42369</v>
@@ -5009,9 +5100,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>1</v>
       </c>
@@ -5025,7 +5115,7 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F16" s="5">
         <v>42430</v>
@@ -5040,9 +5130,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -5056,7 +5145,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F17" s="5">
         <v>42300</v>
@@ -5071,11 +5160,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>1</v>
       </c>
@@ -5089,7 +5175,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F18" s="5">
         <v>42377</v>
@@ -5098,17 +5184,14 @@
         <v>3.5</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>1</v>
       </c>
@@ -5122,7 +5205,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F19" s="5">
         <v>42418</v>
@@ -5131,15 +5214,14 @@
         <v>3</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -5153,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F20" s="5">
         <v>42405</v>
@@ -5162,15 +5244,14 @@
         <v>3.5</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>1</v>
       </c>
@@ -5184,7 +5265,7 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>221</v>
+        <v>379</v>
       </c>
       <c r="F21" s="5">
         <v>42399</v>
@@ -5193,15 +5274,14 @@
         <v>3.5</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>1</v>
       </c>
@@ -5215,7 +5295,7 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F22" s="5">
         <v>42411</v>
@@ -5230,9 +5310,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -5245,27 +5324,9 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
-        <v>223</v>
-      </c>
-      <c r="F23" s="5">
-        <v>42307</v>
-      </c>
-      <c r="G23">
-        <v>3.5</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>1</v>
       </c>
@@ -5279,26 +5340,23 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F24" s="5">
         <v>42309</v>
       </c>
       <c r="G24">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>3.5</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>1</v>
       </c>
@@ -5312,26 +5370,23 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F25" s="5">
         <v>42339</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>3</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -5345,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F26" s="5">
         <v>42278</v>
@@ -5360,11 +5415,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>1</v>
       </c>
@@ -5378,7 +5430,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F27" s="5">
         <v>42292</v>
@@ -5393,11 +5445,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J27" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>1</v>
       </c>
@@ -5411,10 +5460,10 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F28" s="5">
-        <v>42383</v>
+        <v>42474</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -5426,9 +5475,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -5442,7 +5490,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F29" s="5">
         <v>42248</v>
@@ -5457,11 +5505,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J29" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>1</v>
       </c>
@@ -5475,7 +5520,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>230</v>
+        <v>380</v>
       </c>
       <c r="F30" s="5">
         <v>42278</v>
@@ -5490,11 +5535,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J30" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>1</v>
       </c>
@@ -5508,7 +5550,7 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="F31" s="5">
         <v>42401</v>
@@ -5523,11 +5565,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>2</v>
       </c>
@@ -5541,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F32" s="5">
         <v>42401</v>
@@ -5550,15 +5589,14 @@
         <v>3</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>2</v>
       </c>
@@ -5572,7 +5610,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F33" s="5">
         <v>42461</v>
@@ -5587,9 +5625,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>2</v>
       </c>
@@ -5603,7 +5640,7 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F34" s="5">
         <v>42614</v>
@@ -5618,9 +5655,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -5649,11 +5685,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>10</v>
       </c>
-      <c r="J35" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>2</v>
       </c>
@@ -5667,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F36" s="5">
         <v>42307</v>
@@ -5682,11 +5715,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J36" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>2</v>
       </c>
@@ -5700,7 +5730,7 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F37" s="5">
         <v>42338</v>
@@ -5715,11 +5745,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J37" s="9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>2</v>
       </c>
@@ -5733,7 +5760,7 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F38" s="5">
         <v>42369</v>
@@ -5748,11 +5775,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J38" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>2</v>
       </c>
@@ -5766,7 +5790,7 @@
         <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F39" s="5">
         <v>42399</v>
@@ -5781,11 +5805,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J39" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -5799,7 +5820,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F40" s="5">
         <v>42309</v>
@@ -5814,11 +5835,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J40" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>2</v>
       </c>
@@ -5832,7 +5850,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F41" s="5">
         <v>42323</v>
@@ -5847,11 +5865,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J41" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>2</v>
       </c>
@@ -5865,7 +5880,7 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F42" s="5">
         <v>42348</v>
@@ -5880,11 +5895,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>2</v>
       </c>
@@ -5898,7 +5910,7 @@
         <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F43" s="5">
         <v>42368</v>
@@ -5913,9 +5925,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="9"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>2</v>
       </c>
@@ -5929,7 +5940,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F44" s="5">
         <v>42339</v>
@@ -5944,11 +5955,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J44" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -5962,9 +5970,9 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>136</v>
-      </c>
-      <c r="F45" s="10">
+        <v>132</v>
+      </c>
+      <c r="F45" s="16">
         <v>42490</v>
       </c>
       <c r="G45">
@@ -5977,9 +5985,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J45" s="9"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
@@ -5993,9 +6000,9 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>137</v>
-      </c>
-      <c r="F46" s="10">
+        <v>133</v>
+      </c>
+      <c r="F46" s="15">
         <v>42613</v>
       </c>
       <c r="G46">
@@ -6008,9 +6015,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J46" s="9"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -6024,7 +6030,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F47" s="5">
         <v>42244</v>
@@ -6039,11 +6045,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>5</v>
       </c>
-      <c r="J47" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>2</v>
       </c>
@@ -6057,7 +6060,7 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F48" s="5">
         <v>42277</v>
@@ -6072,11 +6075,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>5</v>
       </c>
-      <c r="J48" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>2</v>
       </c>
@@ -6090,26 +6090,23 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>303</v>
-      </c>
-      <c r="F49" s="10">
+        <v>293</v>
+      </c>
+      <c r="F49" s="16">
         <v>42383</v>
       </c>
       <c r="G49">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>2.5</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>2</v>
       </c>
@@ -6122,25 +6119,10 @@
       <c r="D50">
         <v>2</v>
       </c>
-      <c r="E50" t="s">
-        <v>304</v>
-      </c>
-      <c r="F50" s="10">
-        <v>42383</v>
-      </c>
-      <c r="G50">
-        <v>3.5</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50" s="9">
-        <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="9"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F50" s="15"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>2</v>
       </c>
@@ -6153,25 +6135,10 @@
       <c r="D51">
         <v>3</v>
       </c>
-      <c r="E51" t="s">
-        <v>305</v>
-      </c>
-      <c r="F51" s="10">
-        <v>42383</v>
-      </c>
-      <c r="G51">
-        <v>4</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51" s="9">
-        <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="9"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F51" s="16"/>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -6185,24 +6152,23 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>232</v>
-      </c>
-      <c r="F52" s="10">
+        <v>221</v>
+      </c>
+      <c r="F52" s="15">
         <v>42628</v>
       </c>
       <c r="G52">
         <v>10</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="9"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>2</v>
       </c>
@@ -6216,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F53" s="5">
         <v>42309</v>
@@ -6225,17 +6191,14 @@
         <v>2.5</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>2</v>
       </c>
@@ -6249,7 +6212,7 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F54" s="5">
         <v>42353</v>
@@ -6258,17 +6221,14 @@
         <v>2.5</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>2</v>
       </c>
@@ -6282,7 +6242,7 @@
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F55" s="5">
         <v>42399</v>
@@ -6291,17 +6251,14 @@
         <v>2.5</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>2</v>
       </c>
@@ -6315,7 +6272,7 @@
         <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F56" s="5">
         <v>42459</v>
@@ -6330,9 +6287,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J56" s="9"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -6346,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F57" s="5">
         <v>42309</v>
@@ -6355,17 +6311,14 @@
         <v>3.5</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>2</v>
       </c>
@@ -6379,7 +6332,7 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="F58" s="5">
         <v>42323</v>
@@ -6394,11 +6347,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3</v>
       </c>
-      <c r="J58" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>2</v>
       </c>
@@ -6412,7 +6362,7 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F59" s="5">
         <v>42328</v>
@@ -6427,11 +6377,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J59" s="9" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>2</v>
       </c>
@@ -6445,7 +6392,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F60" s="5">
         <v>42287</v>
@@ -6460,11 +6407,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J60" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>2</v>
       </c>
@@ -6478,7 +6422,7 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F61" s="5">
         <v>42307</v>
@@ -6493,11 +6437,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J61" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>2</v>
       </c>
@@ -6511,7 +6452,7 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F62" s="5">
         <v>42338</v>
@@ -6520,17 +6461,14 @@
         <v>2.5</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>2</v>
       </c>
@@ -6544,7 +6482,7 @@
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F63" s="5">
         <v>42368</v>
@@ -6559,9 +6497,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J63" s="9"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -6575,7 +6512,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F64" s="5">
         <v>42034</v>
@@ -6590,11 +6527,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J64" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>2</v>
       </c>
@@ -6608,7 +6542,7 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F65" s="5">
         <v>42036</v>
@@ -6623,11 +6557,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J65" s="9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>2</v>
       </c>
@@ -6641,7 +6572,7 @@
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F66" s="5">
         <v>42338</v>
@@ -6650,17 +6581,14 @@
         <v>3</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>2</v>
       </c>
@@ -6674,7 +6602,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F67" s="5">
         <v>42226</v>
@@ -6689,11 +6617,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>1</v>
       </c>
-      <c r="J67" s="9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>2</v>
       </c>
@@ -6707,7 +6632,7 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F68" s="5">
         <v>42277</v>
@@ -6722,11 +6647,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2</v>
       </c>
-      <c r="J68" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>2</v>
       </c>
@@ -6740,7 +6662,7 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F69" s="5">
         <v>42292</v>
@@ -6749,17 +6671,14 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J69" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>2</v>
       </c>
@@ -6773,7 +6692,7 @@
         <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F70" s="5">
         <v>42353</v>
@@ -6788,11 +6707,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2</v>
       </c>
-      <c r="J70" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>2</v>
       </c>
@@ -6806,7 +6722,7 @@
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>178</v>
+        <v>381</v>
       </c>
       <c r="F71" s="5">
         <v>42368</v>
@@ -6821,9 +6737,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J71" s="9"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>2</v>
       </c>
@@ -6837,7 +6752,7 @@
         <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>179</v>
+        <v>382</v>
       </c>
       <c r="F72" s="5">
         <v>42399</v>
@@ -6852,9 +6767,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J72" s="9"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -6868,7 +6782,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F73" s="5">
         <v>42248</v>
@@ -6883,11 +6797,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J73" s="9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>2</v>
       </c>
@@ -6901,7 +6812,7 @@
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F74" s="5">
         <v>42278</v>
@@ -6910,15 +6821,14 @@
         <v>2.5</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="9"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>2</v>
       </c>
@@ -6932,10 +6842,10 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F75" s="5">
-        <v>42368</v>
+        <v>42428</v>
       </c>
       <c r="G75">
         <v>2.5</v>
@@ -6947,9 +6857,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J75" s="9"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>2</v>
       </c>
@@ -6963,7 +6872,7 @@
         <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F76" s="5">
         <v>42384</v>
@@ -6978,11 +6887,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J76" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>2</v>
       </c>
@@ -6996,7 +6902,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F77" s="5">
         <v>42323</v>
@@ -7011,11 +6917,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J77" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>2</v>
       </c>
@@ -7029,7 +6932,7 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F78" s="5">
         <v>42338</v>
@@ -7044,11 +6947,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J78" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>2</v>
       </c>
@@ -7062,7 +6962,7 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F79" s="5">
         <v>42339</v>
@@ -7077,11 +6977,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J79" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>2</v>
       </c>
@@ -7095,7 +6992,7 @@
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F80" s="5">
         <v>42398</v>
@@ -7104,17 +7001,14 @@
         <v>2.5</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J80" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>2</v>
       </c>
@@ -7128,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F81" s="5">
         <v>42309</v>
@@ -7143,11 +7037,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3</v>
       </c>
-      <c r="J81" s="9" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <v>2</v>
       </c>
@@ -7161,7 +7052,7 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F82" s="5">
         <v>42353</v>
@@ -7176,11 +7067,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J82" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>2</v>
       </c>
@@ -7194,7 +7082,7 @@
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F83" s="5">
         <v>42368</v>
@@ -7203,17 +7091,14 @@
         <v>3.5</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J83" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>2</v>
       </c>
@@ -7227,7 +7112,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F84" s="5">
         <v>42379</v>
@@ -7242,11 +7127,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J84" s="9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>2</v>
       </c>
@@ -7260,7 +7142,7 @@
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F85" s="5">
         <v>42391</v>
@@ -7275,11 +7157,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J85" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <v>2</v>
       </c>
@@ -7293,7 +7172,7 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F86" s="5">
         <v>42430</v>
@@ -7308,9 +7187,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J86" s="9"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>2</v>
       </c>
@@ -7324,7 +7202,7 @@
         <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F87" s="5">
         <v>42491</v>
@@ -7333,15 +7211,14 @@
         <v>2.5</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J87" s="9"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>2</v>
       </c>
@@ -7355,7 +7232,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F88" s="5">
         <v>42277</v>
@@ -7370,11 +7247,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J88" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>2</v>
       </c>
@@ -7388,7 +7262,7 @@
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F89" s="5">
         <v>42415</v>
@@ -7397,15 +7271,14 @@
         <v>3.5</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J89" s="9"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>2</v>
       </c>
@@ -7419,7 +7292,7 @@
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F90" s="5">
         <v>42459</v>
@@ -7434,9 +7307,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J90" s="9"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>2</v>
       </c>
@@ -7450,7 +7322,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>197</v>
+        <v>383</v>
       </c>
       <c r="F91" s="5">
         <v>42399</v>
@@ -7459,15 +7331,14 @@
         <v>3</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J91" s="9"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>2</v>
       </c>
@@ -7481,7 +7352,7 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F92" s="5">
         <v>42428</v>
@@ -7490,15 +7361,14 @@
         <v>3.5</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="9"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>2</v>
       </c>
@@ -7512,7 +7382,7 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F93" s="5">
         <v>42461</v>
@@ -7527,9 +7397,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J93" s="9"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>2</v>
       </c>
@@ -7543,7 +7412,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F94" s="5">
         <v>42343</v>
@@ -7552,17 +7421,14 @@
         <v>3</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J94" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>2</v>
       </c>
@@ -7576,7 +7442,7 @@
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F95" s="5">
         <v>42368</v>
@@ -7585,17 +7451,14 @@
         <v>3.5</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J95" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
         <v>2</v>
       </c>
@@ -7609,7 +7472,7 @@
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F96" s="5">
         <v>42459</v>
@@ -7624,9 +7487,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J96" s="9"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>3</v>
       </c>
@@ -7640,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="F97" s="5">
         <v>42156</v>
@@ -7655,11 +7517,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J97" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>3</v>
       </c>
@@ -7673,7 +7532,7 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F98" s="5">
         <v>42248</v>
@@ -7688,11 +7547,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J98" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>3</v>
       </c>
@@ -7706,7 +7562,7 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F99" s="5">
         <v>42319</v>
@@ -7721,11 +7577,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3</v>
       </c>
-      <c r="J99" s="9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>3</v>
       </c>
@@ -7739,7 +7592,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="F100" s="5">
         <v>42246</v>
@@ -7754,11 +7607,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J100" s="9" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>3</v>
       </c>
@@ -7772,7 +7622,7 @@
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="F101" s="5">
         <v>42277</v>
@@ -7787,11 +7637,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J101" s="9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>3</v>
       </c>
@@ -7805,7 +7652,7 @@
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="F102" s="5">
         <v>42368</v>
@@ -7820,11 +7667,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3</v>
       </c>
-      <c r="J102" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <v>3</v>
       </c>
@@ -7838,7 +7682,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F103" s="5">
         <v>42368</v>
@@ -7853,11 +7697,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J103" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <v>3</v>
       </c>
@@ -7871,7 +7712,7 @@
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F104" s="5">
         <v>42368</v>
@@ -7886,11 +7727,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J104" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
         <v>3</v>
       </c>
@@ -7904,7 +7742,7 @@
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F105" s="5">
         <v>42368</v>
@@ -7919,11 +7757,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J105" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
         <v>3</v>
       </c>
@@ -7937,7 +7772,7 @@
         <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F106" s="5">
         <v>42368</v>
@@ -7952,11 +7787,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J106" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>3</v>
       </c>
@@ -7970,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="F107" s="5">
         <v>42036</v>
@@ -7985,11 +7817,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>1</v>
       </c>
-      <c r="J107" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
         <v>3</v>
       </c>
@@ -8003,7 +7832,7 @@
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F108" s="5">
         <v>42124</v>
@@ -8018,11 +7847,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>1</v>
       </c>
-      <c r="J108" s="9" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <v>3</v>
       </c>
@@ -8036,7 +7862,7 @@
         <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F109" s="5">
         <v>42185</v>
@@ -8051,11 +7877,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2</v>
       </c>
-      <c r="J109" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
         <v>3</v>
       </c>
@@ -8069,7 +7892,7 @@
         <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F110" s="5">
         <v>42124</v>
@@ -8084,11 +7907,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2</v>
       </c>
-      <c r="J110" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>3</v>
       </c>
@@ -8102,7 +7922,7 @@
         <v>5</v>
       </c>
       <c r="E111" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F111" s="5">
         <v>42430</v>
@@ -8111,17 +7931,14 @@
         <v>2</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J111" s="9" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
         <v>3</v>
       </c>
@@ -8135,7 +7952,7 @@
         <v>6</v>
       </c>
       <c r="E112" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="F112" s="5">
         <v>42551</v>
@@ -8150,9 +7967,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J112" s="9"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>3</v>
       </c>
@@ -8166,7 +7982,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="F113" s="5">
         <v>42339</v>
@@ -8181,11 +7997,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>10</v>
       </c>
-      <c r="J113" s="9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
         <v>3</v>
       </c>
@@ -8199,7 +8012,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="F114" s="5">
         <v>42217</v>
@@ -8214,11 +8027,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J114" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>3</v>
       </c>
@@ -8232,7 +8042,7 @@
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F115" s="5">
         <v>42246</v>
@@ -8247,11 +8057,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J115" s="9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
         <v>3</v>
       </c>
@@ -8265,7 +8072,7 @@
         <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F116" s="5">
         <v>42248</v>
@@ -8280,11 +8087,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3</v>
       </c>
-      <c r="J116" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <v>3</v>
       </c>
@@ -8298,7 +8102,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F117" s="5">
         <v>42399</v>
@@ -8307,15 +8111,14 @@
         <v>2.5</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J117" s="9"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
         <v>3</v>
       </c>
@@ -8329,7 +8132,7 @@
         <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="F118" s="5">
         <v>42428</v>
@@ -8338,15 +8141,14 @@
         <v>2.5</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J118" s="9"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <v>3</v>
       </c>
@@ -8360,7 +8162,7 @@
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="F119" s="5">
         <v>42459</v>
@@ -8369,15 +8171,14 @@
         <v>2.5</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J119" s="9"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
         <v>3</v>
       </c>
@@ -8391,7 +8192,7 @@
         <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F120" s="5">
         <v>42338</v>
@@ -8406,9 +8207,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J120" s="9"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>3</v>
       </c>
@@ -8422,7 +8222,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="F121" s="5">
         <v>42217</v>
@@ -8437,9 +8237,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>5</v>
       </c>
-      <c r="J121" s="9"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
         <v>3</v>
       </c>
@@ -8453,7 +8252,7 @@
         <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F122" s="5">
         <v>42248</v>
@@ -8468,9 +8267,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>5</v>
       </c>
-      <c r="J122" s="9"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
         <v>3</v>
       </c>
@@ -8484,7 +8282,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F123" s="5">
         <v>42217</v>
@@ -8499,9 +8297,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J123" s="9"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="7">
         <v>3</v>
       </c>
@@ -8515,7 +8312,7 @@
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F124" s="5">
         <v>42674</v>
@@ -8530,9 +8327,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J124" s="9"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
         <v>3</v>
       </c>
@@ -8546,7 +8342,7 @@
         <v>3</v>
       </c>
       <c r="E125" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F125" s="5">
         <v>42384</v>
@@ -8555,15 +8351,14 @@
         <v>2.5</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J125" s="9"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="7">
         <v>3</v>
       </c>
@@ -8577,7 +8372,7 @@
         <v>4</v>
       </c>
       <c r="E126" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="F126" s="5">
         <v>42428</v>
@@ -8586,15 +8381,14 @@
         <v>2.5</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J126" s="9"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <v>3</v>
       </c>
@@ -8608,7 +8402,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F127" s="5">
         <v>42309</v>
@@ -8623,9 +8417,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J127" s="9"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="7">
         <v>3</v>
       </c>
@@ -8639,7 +8432,7 @@
         <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="F128" s="5">
         <v>42368</v>
@@ -8654,9 +8447,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J128" s="9"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
         <v>3</v>
       </c>
@@ -8670,7 +8462,7 @@
         <v>3</v>
       </c>
       <c r="E129" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="F129" s="5">
         <v>42583</v>
@@ -8685,9 +8477,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J129" s="9"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="7">
         <v>3</v>
       </c>
@@ -8701,7 +8492,7 @@
         <v>4</v>
       </c>
       <c r="E130" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="F130" s="5">
         <v>42597</v>
@@ -8716,9 +8507,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J130" s="9"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="7">
         <v>3</v>
       </c>
@@ -8732,7 +8522,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F131" s="5">
         <v>42292</v>
@@ -8747,9 +8537,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J131" s="9"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="7">
         <v>3</v>
       </c>
@@ -8763,7 +8552,7 @@
         <v>2</v>
       </c>
       <c r="E132" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="F132" s="5">
         <v>42309</v>
@@ -8778,9 +8567,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J132" s="9"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
         <v>3</v>
       </c>
@@ -8794,7 +8582,7 @@
         <v>3</v>
       </c>
       <c r="E133" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F133" s="5">
         <v>42338</v>
@@ -8809,9 +8597,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3</v>
       </c>
-      <c r="J133" s="9"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="7">
         <v>3</v>
       </c>
@@ -8825,7 +8612,7 @@
         <v>1</v>
       </c>
       <c r="E134" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="F134" s="5">
         <v>42368</v>
@@ -8840,9 +8627,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J134" s="9"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="7">
         <v>3</v>
       </c>
@@ -8856,7 +8642,7 @@
         <v>2</v>
       </c>
       <c r="E135" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F135" s="5">
         <v>42384</v>
@@ -8871,9 +8657,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J135" s="9"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="7">
         <v>3</v>
       </c>
@@ -8887,7 +8672,7 @@
         <v>3</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="F136" s="5">
         <v>42428</v>
@@ -8902,9 +8687,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J136" s="9"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
         <v>3</v>
       </c>
@@ -8918,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F137" s="5">
         <v>42368</v>
@@ -8927,15 +8711,14 @@
         <v>3.5</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J137" s="9"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="7">
         <v>3</v>
       </c>
@@ -8949,7 +8732,7 @@
         <v>2</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="F138" s="5">
         <v>42374</v>
@@ -8958,15 +8741,14 @@
         <v>3.5</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J138" s="9"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
         <v>3</v>
       </c>
@@ -8980,7 +8762,7 @@
         <v>3</v>
       </c>
       <c r="E139" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="F139" s="5">
         <v>42428</v>
@@ -8995,9 +8777,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J139" s="9"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="7">
         <v>3</v>
       </c>
@@ -9011,7 +8792,7 @@
         <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F140" s="5">
         <v>42217</v>
@@ -9026,9 +8807,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>5</v>
       </c>
-      <c r="J140" s="9"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="7">
         <v>3</v>
       </c>
@@ -9042,7 +8822,7 @@
         <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="F141" s="5">
         <v>42248</v>
@@ -9057,9 +8837,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>5</v>
       </c>
-      <c r="J141" s="9"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="7">
         <v>3</v>
       </c>
@@ -9073,7 +8852,7 @@
         <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="F142" s="5">
         <v>42287</v>
@@ -9088,9 +8867,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J142" s="9"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="7">
         <v>3</v>
       </c>
@@ -9104,7 +8882,7 @@
         <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="F143" s="5">
         <v>42384</v>
@@ -9113,15 +8891,14 @@
         <v>3.5</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J143" s="9"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="7">
         <v>3</v>
       </c>
@@ -9135,7 +8912,7 @@
         <v>3</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="F144" s="5">
         <v>42428</v>
@@ -9150,9 +8927,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J144" s="9"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="7">
         <v>3</v>
       </c>
@@ -9166,7 +8942,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="F145" s="5">
         <v>42389</v>
@@ -9181,9 +8957,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J145" s="9"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="7">
         <v>3</v>
       </c>
@@ -9197,7 +8972,7 @@
         <v>2</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="F146" s="5">
         <v>42401</v>
@@ -9206,15 +8981,14 @@
         <v>5</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J146" s="9"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="7">
         <v>3</v>
       </c>
@@ -9228,7 +9002,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="F147" s="5">
         <v>42338</v>
@@ -9243,9 +9017,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>5</v>
       </c>
-      <c r="J147" s="9"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="7">
         <v>3</v>
       </c>
@@ -9259,7 +9032,7 @@
         <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="F148" s="5">
         <v>42384</v>
@@ -9274,9 +9047,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J148" s="9"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="7">
         <v>3</v>
       </c>
@@ -9290,24 +9062,23 @@
         <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="F149" s="5">
         <v>42401</v>
       </c>
       <c r="G149">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>3.5</v>
-      </c>
-      <c r="J149" s="9"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="7">
         <v>3</v>
       </c>
@@ -9321,24 +9092,23 @@
         <v>2</v>
       </c>
       <c r="E150" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="F150" s="5">
         <v>42430</v>
       </c>
       <c r="G150">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J150" s="9"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="7">
         <v>3</v>
       </c>
@@ -9351,25 +9121,10 @@
       <c r="D151">
         <v>3</v>
       </c>
-      <c r="E151" t="s">
-        <v>283</v>
-      </c>
-      <c r="F151" s="5">
-        <v>42491</v>
-      </c>
-      <c r="G151">
-        <v>3</v>
-      </c>
-      <c r="H151">
-        <v>0</v>
-      </c>
-      <c r="I151" s="9">
-        <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J151" s="9"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F151" s="5"/>
+      <c r="I151" s="9"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="7">
         <v>4</v>
       </c>
@@ -9383,7 +9138,7 @@
         <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="F152" s="5">
         <v>42278</v>
@@ -9398,9 +9153,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>4</v>
       </c>
-      <c r="J152" s="9"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="7">
         <v>4</v>
       </c>
@@ -9414,7 +9168,7 @@
         <v>2</v>
       </c>
       <c r="E153" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F153" s="5">
         <v>42384</v>
@@ -9423,15 +9177,14 @@
         <v>3</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J153" s="9"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="7">
         <v>4</v>
       </c>
@@ -9445,7 +9198,7 @@
         <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F154" s="5">
         <v>42399</v>
@@ -9460,9 +9213,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J154" s="9"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>4</v>
       </c>
@@ -9476,7 +9228,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F155" s="5">
         <v>42308</v>
@@ -9491,9 +9243,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>4</v>
       </c>
-      <c r="J155" s="9"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>4</v>
       </c>
@@ -9507,7 +9258,7 @@
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F156" s="5">
         <v>42339</v>
@@ -9522,9 +9273,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3</v>
       </c>
-      <c r="J156" s="9"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>4</v>
       </c>
@@ -9538,7 +9288,7 @@
         <v>3</v>
       </c>
       <c r="E157" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F157" s="5">
         <v>42384</v>
@@ -9547,15 +9297,14 @@
         <v>3</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="J157" s="9"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>4</v>
       </c>
@@ -9569,7 +9318,7 @@
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="F158" s="5">
         <v>42252</v>
@@ -9584,9 +9333,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>10</v>
       </c>
-      <c r="J158" s="9"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>4</v>
       </c>
@@ -9600,7 +9348,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="F159" s="5">
         <v>41547</v>
@@ -9615,9 +9363,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>4</v>
       </c>
-      <c r="J159" s="9"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>4</v>
       </c>
@@ -9631,7 +9378,7 @@
         <v>2</v>
       </c>
       <c r="E160" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="F160" s="5">
         <v>42262</v>
@@ -9646,9 +9393,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3</v>
       </c>
-      <c r="J160" s="9"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>4</v>
       </c>
@@ -9662,7 +9408,7 @@
         <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F161" s="5">
         <v>42368</v>
@@ -9677,9 +9423,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J161" s="9"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>4</v>
       </c>
@@ -9693,7 +9438,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="F162" s="5">
         <v>42185</v>
@@ -9708,9 +9453,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J162" s="9"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>4</v>
       </c>
@@ -9724,7 +9468,7 @@
         <v>2</v>
       </c>
       <c r="E163" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F163" s="5">
         <v>42185</v>
@@ -9739,9 +9483,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>2.5</v>
       </c>
-      <c r="J163" s="9"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>4</v>
       </c>
@@ -9755,7 +9498,7 @@
         <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F164" s="5">
         <v>42459</v>
@@ -9770,9 +9513,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J164" s="9"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>4</v>
       </c>
@@ -9786,7 +9528,7 @@
         <v>4</v>
       </c>
       <c r="E165" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F165" s="5">
         <v>42459</v>
@@ -9801,9 +9543,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J165" s="9"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>4</v>
       </c>
@@ -9817,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="F166" s="5">
         <v>42307</v>
@@ -9832,9 +9573,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
-      <c r="J166" s="9"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>4</v>
       </c>
@@ -9848,7 +9588,7 @@
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F167" s="5">
         <v>42368</v>
@@ -9863,9 +9603,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J167" s="9"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>4</v>
       </c>
@@ -9879,7 +9618,7 @@
         <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F168" s="5">
         <v>42428</v>
@@ -9894,9 +9633,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J168" s="9"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>4</v>
       </c>
@@ -9910,7 +9648,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F169" s="5">
         <v>42338</v>
@@ -9925,9 +9663,8 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J169" s="9"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>4</v>
       </c>
@@ -9941,7 +9678,7 @@
         <v>2</v>
       </c>
       <c r="E170" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F170" s="5">
         <v>42338</v>
@@ -9956,7 +9693,6 @@
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
-      <c r="J170" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
